--- a/Bang ke NL, nông lâm sản/Nam 2018/Thang 05.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2018/Thang 05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="19440" windowHeight="9915" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="19440" windowHeight="9915" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOKAI 06" sheetId="16" r:id="rId1"/>
@@ -13,31 +13,39 @@
     <sheet name="HUNAN 29 -32" sheetId="19" r:id="rId4"/>
     <sheet name="PV 89.000" sheetId="20" r:id="rId5"/>
     <sheet name="PV 52.000" sheetId="21" r:id="rId6"/>
+    <sheet name="VP 48.000" sheetId="22" r:id="rId7"/>
+    <sheet name="PV 70.000" sheetId="23" r:id="rId8"/>
+    <sheet name="DAE YEONG 02" sheetId="24" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PV 89.000'!$A$13:$M$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'DAE YEONG 02'!$A$36:$I$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HUNAN 25 - 28'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'HUNAN 29 -32'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'HUNAN 25 - 28'!$11:$13</definedName>
     <definedName name="SNACK03" localSheetId="5" hidden="1">#REF!</definedName>
+    <definedName name="SNACK03" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="SNACK03" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="SNACK03" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="SNACK03" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="SNACK03" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="62">
   <si>
     <t>Người bán</t>
   </si>
@@ -222,11 +230,29 @@
   <si>
     <t>Ngày  11  Tháng  05  năm  2017</t>
   </si>
+  <si>
+    <t>Chúng tôi cam kết các người thụ hưởng nêu trên không có tài khoản thanh toán tại bất kỳ tổ chức tín dụng nào.</t>
+  </si>
+  <si>
+    <t>(Ngày 24 tháng 05 năm 2018)</t>
+  </si>
+  <si>
+    <t>Ngày  24  Tháng  05  năm  2017</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Vân</t>
+  </si>
+  <si>
+    <t>(Ngày 23 tháng 05 năm 2018)</t>
+  </si>
+  <si>
+    <t>Ngày  23  Tháng  5  năm  2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -707,7 +733,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,61 +842,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -960,6 +932,93 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="cg" xfId="2"/>
@@ -1007,7 +1066,52 @@
     <cellStyle name="통화_1202" xfId="26"/>
     <cellStyle name="표준_(정보부문)월별인원계획" xfId="27"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1073,7 +1177,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
@@ -2373,27 +2477,1251 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="TOKAI 03"/>
-      <sheetName val="HUNAM"/>
-      <sheetName val="PV 60.000"/>
-      <sheetName val="OSUNG 01"/>
-      <sheetName val="TOKAI 04"/>
-      <sheetName val="PV 122.600"/>
-      <sheetName val="BAYON 01"/>
-      <sheetName val="PV 189.000"/>
+      <sheetName val="Vine"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="5">
+          <cell r="A5">
+            <v>0</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>cá chai ghép</v>
+          </cell>
+          <cell r="D5">
+            <v>6.5</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Ghẹ</v>
+          </cell>
+          <cell r="D6">
+            <v>8</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>0</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>0</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Người bán</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Tỉnh</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Tên mặt hàng</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Họ tên</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>CMND</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Địa chỉ</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Võ Văn Thắng</v>
+          </cell>
+          <cell r="B12">
+            <v>320044169</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Nguyễn Thị Hồng Hoa</v>
+          </cell>
+          <cell r="B13">
+            <v>320744085</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Nguyễn Thành Phong</v>
+          </cell>
+          <cell r="B14">
+            <v>320775664</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Nguyễn Văn Tha</v>
+          </cell>
+          <cell r="B15">
+            <v>320807672</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Lý Thị Thảo</v>
+          </cell>
+          <cell r="B16">
+            <v>320881573</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Nguyễn Thị Tuyết Đang</v>
+          </cell>
+          <cell r="B17">
+            <v>320883374</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Nguyễn Văn Phong</v>
+          </cell>
+          <cell r="B18">
+            <v>320892558</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Trương Thị Nhớ</v>
+          </cell>
+          <cell r="B19">
+            <v>320892578</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Nguyễn Thanh Hoàng</v>
+          </cell>
+          <cell r="B20">
+            <v>321413712</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Ba Tri - Bến Tre</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Lê Thành Lê</v>
+          </cell>
+          <cell r="B21">
+            <v>320593933</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Đỗ Ngọc Trương</v>
+          </cell>
+          <cell r="B22">
+            <v>320876542</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Đặng Thanh Phong</v>
+          </cell>
+          <cell r="B23">
+            <v>320876558</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Nguyễn Văn Hiền</v>
+          </cell>
+          <cell r="B24">
+            <v>320878054</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Bến Tre</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Nguyễn Thanh Hải</v>
+          </cell>
+          <cell r="B25">
+            <v>321179471</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Phạm Tuấn Anh</v>
+          </cell>
+          <cell r="B26">
+            <v>321478047</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Thạnh Phú - Bến Tre</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Huỳnh Ngọc Thu</v>
+          </cell>
+          <cell r="B27">
+            <v>320522056</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Trần Thị Nê</v>
+          </cell>
+          <cell r="B28">
+            <v>320747922</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Lê Thị Diễm</v>
+          </cell>
+          <cell r="B29">
+            <v>320878272</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Giồng Trôm - Bến Tre</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Trương Thị Mỉm</v>
+          </cell>
+          <cell r="B30">
+            <v>320897817</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Mỏ Cày - Bến Tre</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Nguyễn Thị Loan</v>
+          </cell>
+          <cell r="B31">
+            <v>321009246</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Mỏ Cày - Bến Tre</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Bến Tre</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Lê Thị Diệu</v>
+          </cell>
+          <cell r="B32">
+            <v>250746332</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Đức Linh - Bình Thuận</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Lê Thị Thiện Em</v>
+          </cell>
+          <cell r="B33">
+            <v>260682094</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Đức Linh - Bình Thuận</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Trần Văn An</v>
+          </cell>
+          <cell r="B34">
+            <v>260690910</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Hàm Tân - Bình Thuận</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Nguyễn Thị Hội</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>020714486</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Long Hương - Bình Thuận</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Nguyễn Thanh Bình</v>
+          </cell>
+          <cell r="B36">
+            <v>260178873</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Nguyễn Văn Hạnh</v>
+          </cell>
+          <cell r="B37">
+            <v>260850613</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Trần Thị Thu Hiếu</v>
+          </cell>
+          <cell r="B38">
+            <v>280853616</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Phan Thiết - Bình Thuận</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Nguyễn Văn Nhân</v>
+          </cell>
+          <cell r="B39">
+            <v>261005222</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Thanh Hải - Bình Thuận</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Bình Thuận</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>Cá cơm</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Nguyễn Thị Kiều Oanh</v>
+          </cell>
+          <cell r="B40">
+            <v>381156240</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Nguyễn Thị Hồng Tơ</v>
+          </cell>
+          <cell r="B41">
+            <v>381222859</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Cái Đước - Cà Mau</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Cà Mau</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Phạm Thị Ngọc</v>
+          </cell>
+          <cell r="B42">
+            <v>220557300</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Nha Trang - Khánh Hoà</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Khánh Hoà</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>Cá mai</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Võ Thị Huyền</v>
+          </cell>
+          <cell r="B43">
+            <v>370615318</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Gò Quao - Kiên Giang</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Nguyễn Thị Bé Hai</v>
+          </cell>
+          <cell r="B44">
+            <v>370825748</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Gò Quao - Kiên Giang</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Lâm Thị Loan</v>
+          </cell>
+          <cell r="B45">
+            <v>370698949</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Hòn Đất, Kiên Giang</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>KG 90428TS, KG90139TS, KG91737TS</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Vũ Thị Lan</v>
+          </cell>
+          <cell r="B46">
+            <v>370803567</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Kiên lương - Kiên Giang</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Trương Quốc Tuấn</v>
+          </cell>
+          <cell r="B47">
+            <v>370004125</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Nguyễn Văn Hải</v>
+          </cell>
+          <cell r="B48">
+            <v>370033286</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Huỳnh Thị Kiều</v>
+          </cell>
+          <cell r="B49">
+            <v>370047763</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Nguyễn Thị Kim Vân</v>
+          </cell>
+          <cell r="B50">
+            <v>370054438</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Phan Quốc Việt</v>
+          </cell>
+          <cell r="B51">
+            <v>370209938</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Phạm Thị Bảy</v>
+          </cell>
+          <cell r="B52">
+            <v>370324838</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Tiêu Vĩnh Phát</v>
+          </cell>
+          <cell r="B53">
+            <v>370511387</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Phan Quốc Vũ</v>
+          </cell>
+          <cell r="B54">
+            <v>370782417</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Vương Hải Thạnh</v>
+          </cell>
+          <cell r="B55">
+            <v>370948627</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Trần Huỳnh Em</v>
+          </cell>
+          <cell r="B56">
+            <v>371008704</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Lê Hoàng Long</v>
+          </cell>
+          <cell r="B57">
+            <v>371139593</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Trần Ngọc Quyên</v>
+          </cell>
+          <cell r="B58">
+            <v>371166950</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Rạch Giá - Kiên Giang</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Trần Thị Tuyết</v>
+          </cell>
+          <cell r="B59">
+            <v>370261883</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Vĩnh Thuận - Kiên Giang</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Kiên Giang</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>Cá mai, cá đổng, mực</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Lê Thị Kim Thanh</v>
+          </cell>
+          <cell r="B60">
+            <v>311514350</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Châu Thành - Tiền Giang</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Lê Thị Kim Liên</v>
+          </cell>
+          <cell r="B61">
+            <v>311704830</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Châu Thành - Tiền Giang</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Nguyễn Thị Mộng Tuyền</v>
+          </cell>
+          <cell r="B62">
+            <v>311318331</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Gò Công Đông - Tiền Giang</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Đỗ Thị Hoàng Mai</v>
+          </cell>
+          <cell r="B63">
+            <v>310882191</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Gò Công Tây - Tiền Giang</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Phạm Thị Chính</v>
+          </cell>
+          <cell r="B64">
+            <v>310882158</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v xml:space="preserve">Gò Công Tây - Tiền Giang </v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Trần Thị Lang</v>
+          </cell>
+          <cell r="B65">
+            <v>310033074</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Lê Văn Thành</v>
+          </cell>
+          <cell r="B66">
+            <v>310526150</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Nguyễn Văn Lắm</v>
+          </cell>
+          <cell r="B67">
+            <v>310703274</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Mỹ Tho - Tiền Giang</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Tiền Giang</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Phạm Thị Ngọc</v>
+          </cell>
+          <cell r="B68">
+            <v>273042454</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Bà Rịa Vũng Tàu</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>Br 7799TS</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Võ Thị Bảy</v>
+          </cell>
+          <cell r="B69">
+            <v>270106056</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>Br 4147TS</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Võ Văn Bá</v>
+          </cell>
+          <cell r="B70">
+            <v>270176684</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>Br 5400TS</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nguyễn Thanh Vân</v>
+          </cell>
+          <cell r="B71">
+            <v>270176960</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>Br 4437TS, Br 4516TS</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Trương Văn Mình</v>
+          </cell>
+          <cell r="B72">
+            <v>273017840</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Long Điền - Vũng Tàu</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Nguyễn Ngọc Anh</v>
+          </cell>
+          <cell r="B73">
+            <v>273017843</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Long Điền - Vũng Tàu</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>Cá chỉ vàng</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Ngô Văn Vàng</v>
+          </cell>
+          <cell r="B74">
+            <v>190253143</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Nguyễn Hành</v>
+          </cell>
+          <cell r="B75">
+            <v>190524479</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Lương Âm</v>
+          </cell>
+          <cell r="B76">
+            <v>211161439</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Nguyễn Văn Tư</v>
+          </cell>
+          <cell r="B77">
+            <v>260456563</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Nguyễn Văn Đức</v>
+          </cell>
+          <cell r="B78">
+            <v>261183075</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Vũng Tàu</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>Mực</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2474,7 +3802,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2509,7 +3836,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2685,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,54 +4602,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="4"/>
@@ -3353,26 +4679,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63" t="s">
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="34" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +4720,7 @@
       <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
@@ -3701,9 +5027,9 @@
     <row r="32" spans="1:11">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="21"/>
@@ -3724,7 +5050,7 @@
     <mergeCell ref="I11:I12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3735,7 +5061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4325,54 +5651,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="4"/>
@@ -4402,26 +5728,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63" t="s">
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="36" t="s">
         <v>13</v>
       </c>
@@ -4443,7 +5769,7 @@
       <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1">
       <c r="A13" s="8" t="s">
@@ -4874,9 +6200,9 @@
         <v>39</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -4906,7 +6232,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4917,10 +6243,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -5508,54 +6834,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1">
       <c r="C5" s="4"/>
@@ -5585,26 +6911,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
@@ -6393,9 +7719,9 @@
         <v>29</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -6424,7 +7750,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6435,11 +7761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -7026,54 +8352,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="4"/>
@@ -7103,26 +8429,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
@@ -7907,9 +9233,9 @@
         <v>29</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -7938,7 +9264,7 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7949,11 +9275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -8539,54 +9865,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="C5" s="4"/>
@@ -8616,26 +9942,26 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63" t="s">
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
-      <c r="A12" s="58"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
@@ -8657,7 +9983,7 @@
       <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1">
       <c r="A13" s="8" t="s">
@@ -9089,9 +10415,9 @@
         <v>39</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -9122,7 +10448,7 @@
     <mergeCell ref="I11:I12"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E6 F6">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9133,11 +10459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -9724,163 +11050,163 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="65"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="65"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="65"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="65"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="6.75" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A13" s="58"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
@@ -9903,40 +11229,40 @@
         <v>16</v>
       </c>
       <c r="I13" s="45"/>
-      <c r="J13" s="69"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="10.5" customHeight="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="53">
         <v>2</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="53">
         <v>3</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="53">
         <v>4</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="53">
         <v>5</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="53">
         <v>8</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="53">
         <v>9</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A15" s="74">
+      <c r="A15" s="56">
         <v>43221</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9953,7 +11279,7 @@
       <c r="E15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="57">
         <v>13450</v>
       </c>
       <c r="G15" s="28">
@@ -9964,10 +11290,10 @@
         <v>248825000</v>
       </c>
       <c r="I15" s="28"/>
-      <c r="J15" s="76"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A16" s="74">
+      <c r="A16" s="56">
         <v>43221</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -9984,7 +11310,7 @@
       <c r="E16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="57">
         <v>12540</v>
       </c>
       <c r="G16" s="28">
@@ -9995,10 +11321,10 @@
         <v>231990000</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="76"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A17" s="74">
+      <c r="A17" s="56">
         <v>43226</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -10015,7 +11341,7 @@
       <c r="E17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="57">
         <v>13120</v>
       </c>
       <c r="G17" s="28">
@@ -10026,10 +11352,10 @@
         <v>242720000</v>
       </c>
       <c r="I17" s="27"/>
-      <c r="J17" s="65"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A18" s="74">
+      <c r="A18" s="56">
         <v>43226</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -10046,7 +11372,7 @@
       <c r="E18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="57">
         <v>13520</v>
       </c>
       <c r="G18" s="28">
@@ -10057,10 +11383,10 @@
         <v>250120000</v>
       </c>
       <c r="I18" s="27"/>
-      <c r="J18" s="76"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A19" s="74">
+      <c r="A19" s="56">
         <v>43231</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -10089,180 +11415,180 @@
         <v>247345000</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="65"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="77"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="76"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="76"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="84">
+      <c r="B22" s="47"/>
+      <c r="C22" s="66">
         <f>SUM(H15:H20)</f>
         <v>1221000000</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="66"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="66"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="86" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="65"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="66"/>
-      <c r="B25" s="88" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="89" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="66"/>
-      <c r="B26" s="90" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="92" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="66"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="66"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="66"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="66"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="66"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="66"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10274,7 +11600,7 @@
     <mergeCell ref="E12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E7 F7">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Döõ lieäu sai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10282,4 +11608,3617 @@
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="11" customWidth="1"/>
+    <col min="235" max="235" width="21" customWidth="1"/>
+    <col min="236" max="236" width="21.625" customWidth="1"/>
+    <col min="237" max="237" width="12.125" customWidth="1"/>
+    <col min="238" max="238" width="13.375" customWidth="1"/>
+    <col min="239" max="239" width="9.125" customWidth="1"/>
+    <col min="240" max="240" width="9.25" customWidth="1"/>
+    <col min="241" max="241" width="11.25" customWidth="1"/>
+    <col min="242" max="242" width="9.5" customWidth="1"/>
+    <col min="490" max="490" width="11" customWidth="1"/>
+    <col min="491" max="491" width="21" customWidth="1"/>
+    <col min="492" max="492" width="21.625" customWidth="1"/>
+    <col min="493" max="493" width="12.125" customWidth="1"/>
+    <col min="494" max="494" width="13.375" customWidth="1"/>
+    <col min="495" max="495" width="9.125" customWidth="1"/>
+    <col min="496" max="496" width="9.25" customWidth="1"/>
+    <col min="497" max="497" width="11.25" customWidth="1"/>
+    <col min="498" max="498" width="9.5" customWidth="1"/>
+    <col min="746" max="746" width="11" customWidth="1"/>
+    <col min="747" max="747" width="21" customWidth="1"/>
+    <col min="748" max="748" width="21.625" customWidth="1"/>
+    <col min="749" max="749" width="12.125" customWidth="1"/>
+    <col min="750" max="750" width="13.375" customWidth="1"/>
+    <col min="751" max="751" width="9.125" customWidth="1"/>
+    <col min="752" max="752" width="9.25" customWidth="1"/>
+    <col min="753" max="753" width="11.25" customWidth="1"/>
+    <col min="754" max="754" width="9.5" customWidth="1"/>
+    <col min="1002" max="1002" width="11" customWidth="1"/>
+    <col min="1003" max="1003" width="21" customWidth="1"/>
+    <col min="1004" max="1004" width="21.625" customWidth="1"/>
+    <col min="1005" max="1005" width="12.125" customWidth="1"/>
+    <col min="1006" max="1006" width="13.375" customWidth="1"/>
+    <col min="1007" max="1007" width="9.125" customWidth="1"/>
+    <col min="1008" max="1008" width="9.25" customWidth="1"/>
+    <col min="1009" max="1009" width="11.25" customWidth="1"/>
+    <col min="1010" max="1010" width="9.5" customWidth="1"/>
+    <col min="1258" max="1258" width="11" customWidth="1"/>
+    <col min="1259" max="1259" width="21" customWidth="1"/>
+    <col min="1260" max="1260" width="21.625" customWidth="1"/>
+    <col min="1261" max="1261" width="12.125" customWidth="1"/>
+    <col min="1262" max="1262" width="13.375" customWidth="1"/>
+    <col min="1263" max="1263" width="9.125" customWidth="1"/>
+    <col min="1264" max="1264" width="9.25" customWidth="1"/>
+    <col min="1265" max="1265" width="11.25" customWidth="1"/>
+    <col min="1266" max="1266" width="9.5" customWidth="1"/>
+    <col min="1514" max="1514" width="11" customWidth="1"/>
+    <col min="1515" max="1515" width="21" customWidth="1"/>
+    <col min="1516" max="1516" width="21.625" customWidth="1"/>
+    <col min="1517" max="1517" width="12.125" customWidth="1"/>
+    <col min="1518" max="1518" width="13.375" customWidth="1"/>
+    <col min="1519" max="1519" width="9.125" customWidth="1"/>
+    <col min="1520" max="1520" width="9.25" customWidth="1"/>
+    <col min="1521" max="1521" width="11.25" customWidth="1"/>
+    <col min="1522" max="1522" width="9.5" customWidth="1"/>
+    <col min="1770" max="1770" width="11" customWidth="1"/>
+    <col min="1771" max="1771" width="21" customWidth="1"/>
+    <col min="1772" max="1772" width="21.625" customWidth="1"/>
+    <col min="1773" max="1773" width="12.125" customWidth="1"/>
+    <col min="1774" max="1774" width="13.375" customWidth="1"/>
+    <col min="1775" max="1775" width="9.125" customWidth="1"/>
+    <col min="1776" max="1776" width="9.25" customWidth="1"/>
+    <col min="1777" max="1777" width="11.25" customWidth="1"/>
+    <col min="1778" max="1778" width="9.5" customWidth="1"/>
+    <col min="2026" max="2026" width="11" customWidth="1"/>
+    <col min="2027" max="2027" width="21" customWidth="1"/>
+    <col min="2028" max="2028" width="21.625" customWidth="1"/>
+    <col min="2029" max="2029" width="12.125" customWidth="1"/>
+    <col min="2030" max="2030" width="13.375" customWidth="1"/>
+    <col min="2031" max="2031" width="9.125" customWidth="1"/>
+    <col min="2032" max="2032" width="9.25" customWidth="1"/>
+    <col min="2033" max="2033" width="11.25" customWidth="1"/>
+    <col min="2034" max="2034" width="9.5" customWidth="1"/>
+    <col min="2282" max="2282" width="11" customWidth="1"/>
+    <col min="2283" max="2283" width="21" customWidth="1"/>
+    <col min="2284" max="2284" width="21.625" customWidth="1"/>
+    <col min="2285" max="2285" width="12.125" customWidth="1"/>
+    <col min="2286" max="2286" width="13.375" customWidth="1"/>
+    <col min="2287" max="2287" width="9.125" customWidth="1"/>
+    <col min="2288" max="2288" width="9.25" customWidth="1"/>
+    <col min="2289" max="2289" width="11.25" customWidth="1"/>
+    <col min="2290" max="2290" width="9.5" customWidth="1"/>
+    <col min="2538" max="2538" width="11" customWidth="1"/>
+    <col min="2539" max="2539" width="21" customWidth="1"/>
+    <col min="2540" max="2540" width="21.625" customWidth="1"/>
+    <col min="2541" max="2541" width="12.125" customWidth="1"/>
+    <col min="2542" max="2542" width="13.375" customWidth="1"/>
+    <col min="2543" max="2543" width="9.125" customWidth="1"/>
+    <col min="2544" max="2544" width="9.25" customWidth="1"/>
+    <col min="2545" max="2545" width="11.25" customWidth="1"/>
+    <col min="2546" max="2546" width="9.5" customWidth="1"/>
+    <col min="2794" max="2794" width="11" customWidth="1"/>
+    <col min="2795" max="2795" width="21" customWidth="1"/>
+    <col min="2796" max="2796" width="21.625" customWidth="1"/>
+    <col min="2797" max="2797" width="12.125" customWidth="1"/>
+    <col min="2798" max="2798" width="13.375" customWidth="1"/>
+    <col min="2799" max="2799" width="9.125" customWidth="1"/>
+    <col min="2800" max="2800" width="9.25" customWidth="1"/>
+    <col min="2801" max="2801" width="11.25" customWidth="1"/>
+    <col min="2802" max="2802" width="9.5" customWidth="1"/>
+    <col min="3050" max="3050" width="11" customWidth="1"/>
+    <col min="3051" max="3051" width="21" customWidth="1"/>
+    <col min="3052" max="3052" width="21.625" customWidth="1"/>
+    <col min="3053" max="3053" width="12.125" customWidth="1"/>
+    <col min="3054" max="3054" width="13.375" customWidth="1"/>
+    <col min="3055" max="3055" width="9.125" customWidth="1"/>
+    <col min="3056" max="3056" width="9.25" customWidth="1"/>
+    <col min="3057" max="3057" width="11.25" customWidth="1"/>
+    <col min="3058" max="3058" width="9.5" customWidth="1"/>
+    <col min="3306" max="3306" width="11" customWidth="1"/>
+    <col min="3307" max="3307" width="21" customWidth="1"/>
+    <col min="3308" max="3308" width="21.625" customWidth="1"/>
+    <col min="3309" max="3309" width="12.125" customWidth="1"/>
+    <col min="3310" max="3310" width="13.375" customWidth="1"/>
+    <col min="3311" max="3311" width="9.125" customWidth="1"/>
+    <col min="3312" max="3312" width="9.25" customWidth="1"/>
+    <col min="3313" max="3313" width="11.25" customWidth="1"/>
+    <col min="3314" max="3314" width="9.5" customWidth="1"/>
+    <col min="3562" max="3562" width="11" customWidth="1"/>
+    <col min="3563" max="3563" width="21" customWidth="1"/>
+    <col min="3564" max="3564" width="21.625" customWidth="1"/>
+    <col min="3565" max="3565" width="12.125" customWidth="1"/>
+    <col min="3566" max="3566" width="13.375" customWidth="1"/>
+    <col min="3567" max="3567" width="9.125" customWidth="1"/>
+    <col min="3568" max="3568" width="9.25" customWidth="1"/>
+    <col min="3569" max="3569" width="11.25" customWidth="1"/>
+    <col min="3570" max="3570" width="9.5" customWidth="1"/>
+    <col min="3818" max="3818" width="11" customWidth="1"/>
+    <col min="3819" max="3819" width="21" customWidth="1"/>
+    <col min="3820" max="3820" width="21.625" customWidth="1"/>
+    <col min="3821" max="3821" width="12.125" customWidth="1"/>
+    <col min="3822" max="3822" width="13.375" customWidth="1"/>
+    <col min="3823" max="3823" width="9.125" customWidth="1"/>
+    <col min="3824" max="3824" width="9.25" customWidth="1"/>
+    <col min="3825" max="3825" width="11.25" customWidth="1"/>
+    <col min="3826" max="3826" width="9.5" customWidth="1"/>
+    <col min="4074" max="4074" width="11" customWidth="1"/>
+    <col min="4075" max="4075" width="21" customWidth="1"/>
+    <col min="4076" max="4076" width="21.625" customWidth="1"/>
+    <col min="4077" max="4077" width="12.125" customWidth="1"/>
+    <col min="4078" max="4078" width="13.375" customWidth="1"/>
+    <col min="4079" max="4079" width="9.125" customWidth="1"/>
+    <col min="4080" max="4080" width="9.25" customWidth="1"/>
+    <col min="4081" max="4081" width="11.25" customWidth="1"/>
+    <col min="4082" max="4082" width="9.5" customWidth="1"/>
+    <col min="4330" max="4330" width="11" customWidth="1"/>
+    <col min="4331" max="4331" width="21" customWidth="1"/>
+    <col min="4332" max="4332" width="21.625" customWidth="1"/>
+    <col min="4333" max="4333" width="12.125" customWidth="1"/>
+    <col min="4334" max="4334" width="13.375" customWidth="1"/>
+    <col min="4335" max="4335" width="9.125" customWidth="1"/>
+    <col min="4336" max="4336" width="9.25" customWidth="1"/>
+    <col min="4337" max="4337" width="11.25" customWidth="1"/>
+    <col min="4338" max="4338" width="9.5" customWidth="1"/>
+    <col min="4586" max="4586" width="11" customWidth="1"/>
+    <col min="4587" max="4587" width="21" customWidth="1"/>
+    <col min="4588" max="4588" width="21.625" customWidth="1"/>
+    <col min="4589" max="4589" width="12.125" customWidth="1"/>
+    <col min="4590" max="4590" width="13.375" customWidth="1"/>
+    <col min="4591" max="4591" width="9.125" customWidth="1"/>
+    <col min="4592" max="4592" width="9.25" customWidth="1"/>
+    <col min="4593" max="4593" width="11.25" customWidth="1"/>
+    <col min="4594" max="4594" width="9.5" customWidth="1"/>
+    <col min="4842" max="4842" width="11" customWidth="1"/>
+    <col min="4843" max="4843" width="21" customWidth="1"/>
+    <col min="4844" max="4844" width="21.625" customWidth="1"/>
+    <col min="4845" max="4845" width="12.125" customWidth="1"/>
+    <col min="4846" max="4846" width="13.375" customWidth="1"/>
+    <col min="4847" max="4847" width="9.125" customWidth="1"/>
+    <col min="4848" max="4848" width="9.25" customWidth="1"/>
+    <col min="4849" max="4849" width="11.25" customWidth="1"/>
+    <col min="4850" max="4850" width="9.5" customWidth="1"/>
+    <col min="5098" max="5098" width="11" customWidth="1"/>
+    <col min="5099" max="5099" width="21" customWidth="1"/>
+    <col min="5100" max="5100" width="21.625" customWidth="1"/>
+    <col min="5101" max="5101" width="12.125" customWidth="1"/>
+    <col min="5102" max="5102" width="13.375" customWidth="1"/>
+    <col min="5103" max="5103" width="9.125" customWidth="1"/>
+    <col min="5104" max="5104" width="9.25" customWidth="1"/>
+    <col min="5105" max="5105" width="11.25" customWidth="1"/>
+    <col min="5106" max="5106" width="9.5" customWidth="1"/>
+    <col min="5354" max="5354" width="11" customWidth="1"/>
+    <col min="5355" max="5355" width="21" customWidth="1"/>
+    <col min="5356" max="5356" width="21.625" customWidth="1"/>
+    <col min="5357" max="5357" width="12.125" customWidth="1"/>
+    <col min="5358" max="5358" width="13.375" customWidth="1"/>
+    <col min="5359" max="5359" width="9.125" customWidth="1"/>
+    <col min="5360" max="5360" width="9.25" customWidth="1"/>
+    <col min="5361" max="5361" width="11.25" customWidth="1"/>
+    <col min="5362" max="5362" width="9.5" customWidth="1"/>
+    <col min="5610" max="5610" width="11" customWidth="1"/>
+    <col min="5611" max="5611" width="21" customWidth="1"/>
+    <col min="5612" max="5612" width="21.625" customWidth="1"/>
+    <col min="5613" max="5613" width="12.125" customWidth="1"/>
+    <col min="5614" max="5614" width="13.375" customWidth="1"/>
+    <col min="5615" max="5615" width="9.125" customWidth="1"/>
+    <col min="5616" max="5616" width="9.25" customWidth="1"/>
+    <col min="5617" max="5617" width="11.25" customWidth="1"/>
+    <col min="5618" max="5618" width="9.5" customWidth="1"/>
+    <col min="5866" max="5866" width="11" customWidth="1"/>
+    <col min="5867" max="5867" width="21" customWidth="1"/>
+    <col min="5868" max="5868" width="21.625" customWidth="1"/>
+    <col min="5869" max="5869" width="12.125" customWidth="1"/>
+    <col min="5870" max="5870" width="13.375" customWidth="1"/>
+    <col min="5871" max="5871" width="9.125" customWidth="1"/>
+    <col min="5872" max="5872" width="9.25" customWidth="1"/>
+    <col min="5873" max="5873" width="11.25" customWidth="1"/>
+    <col min="5874" max="5874" width="9.5" customWidth="1"/>
+    <col min="6122" max="6122" width="11" customWidth="1"/>
+    <col min="6123" max="6123" width="21" customWidth="1"/>
+    <col min="6124" max="6124" width="21.625" customWidth="1"/>
+    <col min="6125" max="6125" width="12.125" customWidth="1"/>
+    <col min="6126" max="6126" width="13.375" customWidth="1"/>
+    <col min="6127" max="6127" width="9.125" customWidth="1"/>
+    <col min="6128" max="6128" width="9.25" customWidth="1"/>
+    <col min="6129" max="6129" width="11.25" customWidth="1"/>
+    <col min="6130" max="6130" width="9.5" customWidth="1"/>
+    <col min="6378" max="6378" width="11" customWidth="1"/>
+    <col min="6379" max="6379" width="21" customWidth="1"/>
+    <col min="6380" max="6380" width="21.625" customWidth="1"/>
+    <col min="6381" max="6381" width="12.125" customWidth="1"/>
+    <col min="6382" max="6382" width="13.375" customWidth="1"/>
+    <col min="6383" max="6383" width="9.125" customWidth="1"/>
+    <col min="6384" max="6384" width="9.25" customWidth="1"/>
+    <col min="6385" max="6385" width="11.25" customWidth="1"/>
+    <col min="6386" max="6386" width="9.5" customWidth="1"/>
+    <col min="6634" max="6634" width="11" customWidth="1"/>
+    <col min="6635" max="6635" width="21" customWidth="1"/>
+    <col min="6636" max="6636" width="21.625" customWidth="1"/>
+    <col min="6637" max="6637" width="12.125" customWidth="1"/>
+    <col min="6638" max="6638" width="13.375" customWidth="1"/>
+    <col min="6639" max="6639" width="9.125" customWidth="1"/>
+    <col min="6640" max="6640" width="9.25" customWidth="1"/>
+    <col min="6641" max="6641" width="11.25" customWidth="1"/>
+    <col min="6642" max="6642" width="9.5" customWidth="1"/>
+    <col min="6890" max="6890" width="11" customWidth="1"/>
+    <col min="6891" max="6891" width="21" customWidth="1"/>
+    <col min="6892" max="6892" width="21.625" customWidth="1"/>
+    <col min="6893" max="6893" width="12.125" customWidth="1"/>
+    <col min="6894" max="6894" width="13.375" customWidth="1"/>
+    <col min="6895" max="6895" width="9.125" customWidth="1"/>
+    <col min="6896" max="6896" width="9.25" customWidth="1"/>
+    <col min="6897" max="6897" width="11.25" customWidth="1"/>
+    <col min="6898" max="6898" width="9.5" customWidth="1"/>
+    <col min="7146" max="7146" width="11" customWidth="1"/>
+    <col min="7147" max="7147" width="21" customWidth="1"/>
+    <col min="7148" max="7148" width="21.625" customWidth="1"/>
+    <col min="7149" max="7149" width="12.125" customWidth="1"/>
+    <col min="7150" max="7150" width="13.375" customWidth="1"/>
+    <col min="7151" max="7151" width="9.125" customWidth="1"/>
+    <col min="7152" max="7152" width="9.25" customWidth="1"/>
+    <col min="7153" max="7153" width="11.25" customWidth="1"/>
+    <col min="7154" max="7154" width="9.5" customWidth="1"/>
+    <col min="7402" max="7402" width="11" customWidth="1"/>
+    <col min="7403" max="7403" width="21" customWidth="1"/>
+    <col min="7404" max="7404" width="21.625" customWidth="1"/>
+    <col min="7405" max="7405" width="12.125" customWidth="1"/>
+    <col min="7406" max="7406" width="13.375" customWidth="1"/>
+    <col min="7407" max="7407" width="9.125" customWidth="1"/>
+    <col min="7408" max="7408" width="9.25" customWidth="1"/>
+    <col min="7409" max="7409" width="11.25" customWidth="1"/>
+    <col min="7410" max="7410" width="9.5" customWidth="1"/>
+    <col min="7658" max="7658" width="11" customWidth="1"/>
+    <col min="7659" max="7659" width="21" customWidth="1"/>
+    <col min="7660" max="7660" width="21.625" customWidth="1"/>
+    <col min="7661" max="7661" width="12.125" customWidth="1"/>
+    <col min="7662" max="7662" width="13.375" customWidth="1"/>
+    <col min="7663" max="7663" width="9.125" customWidth="1"/>
+    <col min="7664" max="7664" width="9.25" customWidth="1"/>
+    <col min="7665" max="7665" width="11.25" customWidth="1"/>
+    <col min="7666" max="7666" width="9.5" customWidth="1"/>
+    <col min="7914" max="7914" width="11" customWidth="1"/>
+    <col min="7915" max="7915" width="21" customWidth="1"/>
+    <col min="7916" max="7916" width="21.625" customWidth="1"/>
+    <col min="7917" max="7917" width="12.125" customWidth="1"/>
+    <col min="7918" max="7918" width="13.375" customWidth="1"/>
+    <col min="7919" max="7919" width="9.125" customWidth="1"/>
+    <col min="7920" max="7920" width="9.25" customWidth="1"/>
+    <col min="7921" max="7921" width="11.25" customWidth="1"/>
+    <col min="7922" max="7922" width="9.5" customWidth="1"/>
+    <col min="8170" max="8170" width="11" customWidth="1"/>
+    <col min="8171" max="8171" width="21" customWidth="1"/>
+    <col min="8172" max="8172" width="21.625" customWidth="1"/>
+    <col min="8173" max="8173" width="12.125" customWidth="1"/>
+    <col min="8174" max="8174" width="13.375" customWidth="1"/>
+    <col min="8175" max="8175" width="9.125" customWidth="1"/>
+    <col min="8176" max="8176" width="9.25" customWidth="1"/>
+    <col min="8177" max="8177" width="11.25" customWidth="1"/>
+    <col min="8178" max="8178" width="9.5" customWidth="1"/>
+    <col min="8426" max="8426" width="11" customWidth="1"/>
+    <col min="8427" max="8427" width="21" customWidth="1"/>
+    <col min="8428" max="8428" width="21.625" customWidth="1"/>
+    <col min="8429" max="8429" width="12.125" customWidth="1"/>
+    <col min="8430" max="8430" width="13.375" customWidth="1"/>
+    <col min="8431" max="8431" width="9.125" customWidth="1"/>
+    <col min="8432" max="8432" width="9.25" customWidth="1"/>
+    <col min="8433" max="8433" width="11.25" customWidth="1"/>
+    <col min="8434" max="8434" width="9.5" customWidth="1"/>
+    <col min="8682" max="8682" width="11" customWidth="1"/>
+    <col min="8683" max="8683" width="21" customWidth="1"/>
+    <col min="8684" max="8684" width="21.625" customWidth="1"/>
+    <col min="8685" max="8685" width="12.125" customWidth="1"/>
+    <col min="8686" max="8686" width="13.375" customWidth="1"/>
+    <col min="8687" max="8687" width="9.125" customWidth="1"/>
+    <col min="8688" max="8688" width="9.25" customWidth="1"/>
+    <col min="8689" max="8689" width="11.25" customWidth="1"/>
+    <col min="8690" max="8690" width="9.5" customWidth="1"/>
+    <col min="8938" max="8938" width="11" customWidth="1"/>
+    <col min="8939" max="8939" width="21" customWidth="1"/>
+    <col min="8940" max="8940" width="21.625" customWidth="1"/>
+    <col min="8941" max="8941" width="12.125" customWidth="1"/>
+    <col min="8942" max="8942" width="13.375" customWidth="1"/>
+    <col min="8943" max="8943" width="9.125" customWidth="1"/>
+    <col min="8944" max="8944" width="9.25" customWidth="1"/>
+    <col min="8945" max="8945" width="11.25" customWidth="1"/>
+    <col min="8946" max="8946" width="9.5" customWidth="1"/>
+    <col min="9194" max="9194" width="11" customWidth="1"/>
+    <col min="9195" max="9195" width="21" customWidth="1"/>
+    <col min="9196" max="9196" width="21.625" customWidth="1"/>
+    <col min="9197" max="9197" width="12.125" customWidth="1"/>
+    <col min="9198" max="9198" width="13.375" customWidth="1"/>
+    <col min="9199" max="9199" width="9.125" customWidth="1"/>
+    <col min="9200" max="9200" width="9.25" customWidth="1"/>
+    <col min="9201" max="9201" width="11.25" customWidth="1"/>
+    <col min="9202" max="9202" width="9.5" customWidth="1"/>
+    <col min="9450" max="9450" width="11" customWidth="1"/>
+    <col min="9451" max="9451" width="21" customWidth="1"/>
+    <col min="9452" max="9452" width="21.625" customWidth="1"/>
+    <col min="9453" max="9453" width="12.125" customWidth="1"/>
+    <col min="9454" max="9454" width="13.375" customWidth="1"/>
+    <col min="9455" max="9455" width="9.125" customWidth="1"/>
+    <col min="9456" max="9456" width="9.25" customWidth="1"/>
+    <col min="9457" max="9457" width="11.25" customWidth="1"/>
+    <col min="9458" max="9458" width="9.5" customWidth="1"/>
+    <col min="9706" max="9706" width="11" customWidth="1"/>
+    <col min="9707" max="9707" width="21" customWidth="1"/>
+    <col min="9708" max="9708" width="21.625" customWidth="1"/>
+    <col min="9709" max="9709" width="12.125" customWidth="1"/>
+    <col min="9710" max="9710" width="13.375" customWidth="1"/>
+    <col min="9711" max="9711" width="9.125" customWidth="1"/>
+    <col min="9712" max="9712" width="9.25" customWidth="1"/>
+    <col min="9713" max="9713" width="11.25" customWidth="1"/>
+    <col min="9714" max="9714" width="9.5" customWidth="1"/>
+    <col min="9962" max="9962" width="11" customWidth="1"/>
+    <col min="9963" max="9963" width="21" customWidth="1"/>
+    <col min="9964" max="9964" width="21.625" customWidth="1"/>
+    <col min="9965" max="9965" width="12.125" customWidth="1"/>
+    <col min="9966" max="9966" width="13.375" customWidth="1"/>
+    <col min="9967" max="9967" width="9.125" customWidth="1"/>
+    <col min="9968" max="9968" width="9.25" customWidth="1"/>
+    <col min="9969" max="9969" width="11.25" customWidth="1"/>
+    <col min="9970" max="9970" width="9.5" customWidth="1"/>
+    <col min="10218" max="10218" width="11" customWidth="1"/>
+    <col min="10219" max="10219" width="21" customWidth="1"/>
+    <col min="10220" max="10220" width="21.625" customWidth="1"/>
+    <col min="10221" max="10221" width="12.125" customWidth="1"/>
+    <col min="10222" max="10222" width="13.375" customWidth="1"/>
+    <col min="10223" max="10223" width="9.125" customWidth="1"/>
+    <col min="10224" max="10224" width="9.25" customWidth="1"/>
+    <col min="10225" max="10225" width="11.25" customWidth="1"/>
+    <col min="10226" max="10226" width="9.5" customWidth="1"/>
+    <col min="10474" max="10474" width="11" customWidth="1"/>
+    <col min="10475" max="10475" width="21" customWidth="1"/>
+    <col min="10476" max="10476" width="21.625" customWidth="1"/>
+    <col min="10477" max="10477" width="12.125" customWidth="1"/>
+    <col min="10478" max="10478" width="13.375" customWidth="1"/>
+    <col min="10479" max="10479" width="9.125" customWidth="1"/>
+    <col min="10480" max="10480" width="9.25" customWidth="1"/>
+    <col min="10481" max="10481" width="11.25" customWidth="1"/>
+    <col min="10482" max="10482" width="9.5" customWidth="1"/>
+    <col min="10730" max="10730" width="11" customWidth="1"/>
+    <col min="10731" max="10731" width="21" customWidth="1"/>
+    <col min="10732" max="10732" width="21.625" customWidth="1"/>
+    <col min="10733" max="10733" width="12.125" customWidth="1"/>
+    <col min="10734" max="10734" width="13.375" customWidth="1"/>
+    <col min="10735" max="10735" width="9.125" customWidth="1"/>
+    <col min="10736" max="10736" width="9.25" customWidth="1"/>
+    <col min="10737" max="10737" width="11.25" customWidth="1"/>
+    <col min="10738" max="10738" width="9.5" customWidth="1"/>
+    <col min="10986" max="10986" width="11" customWidth="1"/>
+    <col min="10987" max="10987" width="21" customWidth="1"/>
+    <col min="10988" max="10988" width="21.625" customWidth="1"/>
+    <col min="10989" max="10989" width="12.125" customWidth="1"/>
+    <col min="10990" max="10990" width="13.375" customWidth="1"/>
+    <col min="10991" max="10991" width="9.125" customWidth="1"/>
+    <col min="10992" max="10992" width="9.25" customWidth="1"/>
+    <col min="10993" max="10993" width="11.25" customWidth="1"/>
+    <col min="10994" max="10994" width="9.5" customWidth="1"/>
+    <col min="11242" max="11242" width="11" customWidth="1"/>
+    <col min="11243" max="11243" width="21" customWidth="1"/>
+    <col min="11244" max="11244" width="21.625" customWidth="1"/>
+    <col min="11245" max="11245" width="12.125" customWidth="1"/>
+    <col min="11246" max="11246" width="13.375" customWidth="1"/>
+    <col min="11247" max="11247" width="9.125" customWidth="1"/>
+    <col min="11248" max="11248" width="9.25" customWidth="1"/>
+    <col min="11249" max="11249" width="11.25" customWidth="1"/>
+    <col min="11250" max="11250" width="9.5" customWidth="1"/>
+    <col min="11498" max="11498" width="11" customWidth="1"/>
+    <col min="11499" max="11499" width="21" customWidth="1"/>
+    <col min="11500" max="11500" width="21.625" customWidth="1"/>
+    <col min="11501" max="11501" width="12.125" customWidth="1"/>
+    <col min="11502" max="11502" width="13.375" customWidth="1"/>
+    <col min="11503" max="11503" width="9.125" customWidth="1"/>
+    <col min="11504" max="11504" width="9.25" customWidth="1"/>
+    <col min="11505" max="11505" width="11.25" customWidth="1"/>
+    <col min="11506" max="11506" width="9.5" customWidth="1"/>
+    <col min="11754" max="11754" width="11" customWidth="1"/>
+    <col min="11755" max="11755" width="21" customWidth="1"/>
+    <col min="11756" max="11756" width="21.625" customWidth="1"/>
+    <col min="11757" max="11757" width="12.125" customWidth="1"/>
+    <col min="11758" max="11758" width="13.375" customWidth="1"/>
+    <col min="11759" max="11759" width="9.125" customWidth="1"/>
+    <col min="11760" max="11760" width="9.25" customWidth="1"/>
+    <col min="11761" max="11761" width="11.25" customWidth="1"/>
+    <col min="11762" max="11762" width="9.5" customWidth="1"/>
+    <col min="12010" max="12010" width="11" customWidth="1"/>
+    <col min="12011" max="12011" width="21" customWidth="1"/>
+    <col min="12012" max="12012" width="21.625" customWidth="1"/>
+    <col min="12013" max="12013" width="12.125" customWidth="1"/>
+    <col min="12014" max="12014" width="13.375" customWidth="1"/>
+    <col min="12015" max="12015" width="9.125" customWidth="1"/>
+    <col min="12016" max="12016" width="9.25" customWidth="1"/>
+    <col min="12017" max="12017" width="11.25" customWidth="1"/>
+    <col min="12018" max="12018" width="9.5" customWidth="1"/>
+    <col min="12266" max="12266" width="11" customWidth="1"/>
+    <col min="12267" max="12267" width="21" customWidth="1"/>
+    <col min="12268" max="12268" width="21.625" customWidth="1"/>
+    <col min="12269" max="12269" width="12.125" customWidth="1"/>
+    <col min="12270" max="12270" width="13.375" customWidth="1"/>
+    <col min="12271" max="12271" width="9.125" customWidth="1"/>
+    <col min="12272" max="12272" width="9.25" customWidth="1"/>
+    <col min="12273" max="12273" width="11.25" customWidth="1"/>
+    <col min="12274" max="12274" width="9.5" customWidth="1"/>
+    <col min="12522" max="12522" width="11" customWidth="1"/>
+    <col min="12523" max="12523" width="21" customWidth="1"/>
+    <col min="12524" max="12524" width="21.625" customWidth="1"/>
+    <col min="12525" max="12525" width="12.125" customWidth="1"/>
+    <col min="12526" max="12526" width="13.375" customWidth="1"/>
+    <col min="12527" max="12527" width="9.125" customWidth="1"/>
+    <col min="12528" max="12528" width="9.25" customWidth="1"/>
+    <col min="12529" max="12529" width="11.25" customWidth="1"/>
+    <col min="12530" max="12530" width="9.5" customWidth="1"/>
+    <col min="12778" max="12778" width="11" customWidth="1"/>
+    <col min="12779" max="12779" width="21" customWidth="1"/>
+    <col min="12780" max="12780" width="21.625" customWidth="1"/>
+    <col min="12781" max="12781" width="12.125" customWidth="1"/>
+    <col min="12782" max="12782" width="13.375" customWidth="1"/>
+    <col min="12783" max="12783" width="9.125" customWidth="1"/>
+    <col min="12784" max="12784" width="9.25" customWidth="1"/>
+    <col min="12785" max="12785" width="11.25" customWidth="1"/>
+    <col min="12786" max="12786" width="9.5" customWidth="1"/>
+    <col min="13034" max="13034" width="11" customWidth="1"/>
+    <col min="13035" max="13035" width="21" customWidth="1"/>
+    <col min="13036" max="13036" width="21.625" customWidth="1"/>
+    <col min="13037" max="13037" width="12.125" customWidth="1"/>
+    <col min="13038" max="13038" width="13.375" customWidth="1"/>
+    <col min="13039" max="13039" width="9.125" customWidth="1"/>
+    <col min="13040" max="13040" width="9.25" customWidth="1"/>
+    <col min="13041" max="13041" width="11.25" customWidth="1"/>
+    <col min="13042" max="13042" width="9.5" customWidth="1"/>
+    <col min="13290" max="13290" width="11" customWidth="1"/>
+    <col min="13291" max="13291" width="21" customWidth="1"/>
+    <col min="13292" max="13292" width="21.625" customWidth="1"/>
+    <col min="13293" max="13293" width="12.125" customWidth="1"/>
+    <col min="13294" max="13294" width="13.375" customWidth="1"/>
+    <col min="13295" max="13295" width="9.125" customWidth="1"/>
+    <col min="13296" max="13296" width="9.25" customWidth="1"/>
+    <col min="13297" max="13297" width="11.25" customWidth="1"/>
+    <col min="13298" max="13298" width="9.5" customWidth="1"/>
+    <col min="13546" max="13546" width="11" customWidth="1"/>
+    <col min="13547" max="13547" width="21" customWidth="1"/>
+    <col min="13548" max="13548" width="21.625" customWidth="1"/>
+    <col min="13549" max="13549" width="12.125" customWidth="1"/>
+    <col min="13550" max="13550" width="13.375" customWidth="1"/>
+    <col min="13551" max="13551" width="9.125" customWidth="1"/>
+    <col min="13552" max="13552" width="9.25" customWidth="1"/>
+    <col min="13553" max="13553" width="11.25" customWidth="1"/>
+    <col min="13554" max="13554" width="9.5" customWidth="1"/>
+    <col min="13802" max="13802" width="11" customWidth="1"/>
+    <col min="13803" max="13803" width="21" customWidth="1"/>
+    <col min="13804" max="13804" width="21.625" customWidth="1"/>
+    <col min="13805" max="13805" width="12.125" customWidth="1"/>
+    <col min="13806" max="13806" width="13.375" customWidth="1"/>
+    <col min="13807" max="13807" width="9.125" customWidth="1"/>
+    <col min="13808" max="13808" width="9.25" customWidth="1"/>
+    <col min="13809" max="13809" width="11.25" customWidth="1"/>
+    <col min="13810" max="13810" width="9.5" customWidth="1"/>
+    <col min="14058" max="14058" width="11" customWidth="1"/>
+    <col min="14059" max="14059" width="21" customWidth="1"/>
+    <col min="14060" max="14060" width="21.625" customWidth="1"/>
+    <col min="14061" max="14061" width="12.125" customWidth="1"/>
+    <col min="14062" max="14062" width="13.375" customWidth="1"/>
+    <col min="14063" max="14063" width="9.125" customWidth="1"/>
+    <col min="14064" max="14064" width="9.25" customWidth="1"/>
+    <col min="14065" max="14065" width="11.25" customWidth="1"/>
+    <col min="14066" max="14066" width="9.5" customWidth="1"/>
+    <col min="14314" max="14314" width="11" customWidth="1"/>
+    <col min="14315" max="14315" width="21" customWidth="1"/>
+    <col min="14316" max="14316" width="21.625" customWidth="1"/>
+    <col min="14317" max="14317" width="12.125" customWidth="1"/>
+    <col min="14318" max="14318" width="13.375" customWidth="1"/>
+    <col min="14319" max="14319" width="9.125" customWidth="1"/>
+    <col min="14320" max="14320" width="9.25" customWidth="1"/>
+    <col min="14321" max="14321" width="11.25" customWidth="1"/>
+    <col min="14322" max="14322" width="9.5" customWidth="1"/>
+    <col min="14570" max="14570" width="11" customWidth="1"/>
+    <col min="14571" max="14571" width="21" customWidth="1"/>
+    <col min="14572" max="14572" width="21.625" customWidth="1"/>
+    <col min="14573" max="14573" width="12.125" customWidth="1"/>
+    <col min="14574" max="14574" width="13.375" customWidth="1"/>
+    <col min="14575" max="14575" width="9.125" customWidth="1"/>
+    <col min="14576" max="14576" width="9.25" customWidth="1"/>
+    <col min="14577" max="14577" width="11.25" customWidth="1"/>
+    <col min="14578" max="14578" width="9.5" customWidth="1"/>
+    <col min="14826" max="14826" width="11" customWidth="1"/>
+    <col min="14827" max="14827" width="21" customWidth="1"/>
+    <col min="14828" max="14828" width="21.625" customWidth="1"/>
+    <col min="14829" max="14829" width="12.125" customWidth="1"/>
+    <col min="14830" max="14830" width="13.375" customWidth="1"/>
+    <col min="14831" max="14831" width="9.125" customWidth="1"/>
+    <col min="14832" max="14832" width="9.25" customWidth="1"/>
+    <col min="14833" max="14833" width="11.25" customWidth="1"/>
+    <col min="14834" max="14834" width="9.5" customWidth="1"/>
+    <col min="15082" max="15082" width="11" customWidth="1"/>
+    <col min="15083" max="15083" width="21" customWidth="1"/>
+    <col min="15084" max="15084" width="21.625" customWidth="1"/>
+    <col min="15085" max="15085" width="12.125" customWidth="1"/>
+    <col min="15086" max="15086" width="13.375" customWidth="1"/>
+    <col min="15087" max="15087" width="9.125" customWidth="1"/>
+    <col min="15088" max="15088" width="9.25" customWidth="1"/>
+    <col min="15089" max="15089" width="11.25" customWidth="1"/>
+    <col min="15090" max="15090" width="9.5" customWidth="1"/>
+    <col min="15338" max="15338" width="11" customWidth="1"/>
+    <col min="15339" max="15339" width="21" customWidth="1"/>
+    <col min="15340" max="15340" width="21.625" customWidth="1"/>
+    <col min="15341" max="15341" width="12.125" customWidth="1"/>
+    <col min="15342" max="15342" width="13.375" customWidth="1"/>
+    <col min="15343" max="15343" width="9.125" customWidth="1"/>
+    <col min="15344" max="15344" width="9.25" customWidth="1"/>
+    <col min="15345" max="15345" width="11.25" customWidth="1"/>
+    <col min="15346" max="15346" width="9.5" customWidth="1"/>
+    <col min="15594" max="15594" width="11" customWidth="1"/>
+    <col min="15595" max="15595" width="21" customWidth="1"/>
+    <col min="15596" max="15596" width="21.625" customWidth="1"/>
+    <col min="15597" max="15597" width="12.125" customWidth="1"/>
+    <col min="15598" max="15598" width="13.375" customWidth="1"/>
+    <col min="15599" max="15599" width="9.125" customWidth="1"/>
+    <col min="15600" max="15600" width="9.25" customWidth="1"/>
+    <col min="15601" max="15601" width="11.25" customWidth="1"/>
+    <col min="15602" max="15602" width="9.5" customWidth="1"/>
+    <col min="15850" max="15850" width="11" customWidth="1"/>
+    <col min="15851" max="15851" width="21" customWidth="1"/>
+    <col min="15852" max="15852" width="21.625" customWidth="1"/>
+    <col min="15853" max="15853" width="12.125" customWidth="1"/>
+    <col min="15854" max="15854" width="13.375" customWidth="1"/>
+    <col min="15855" max="15855" width="9.125" customWidth="1"/>
+    <col min="15856" max="15856" width="9.25" customWidth="1"/>
+    <col min="15857" max="15857" width="11.25" customWidth="1"/>
+    <col min="15858" max="15858" width="9.5" customWidth="1"/>
+    <col min="16106" max="16106" width="11" customWidth="1"/>
+    <col min="16107" max="16107" width="21" customWidth="1"/>
+    <col min="16108" max="16108" width="21.625" customWidth="1"/>
+    <col min="16109" max="16109" width="12.125" customWidth="1"/>
+    <col min="16110" max="16110" width="13.375" customWidth="1"/>
+    <col min="16111" max="16111" width="9.125" customWidth="1"/>
+    <col min="16112" max="16112" width="9.25" customWidth="1"/>
+    <col min="16113" max="16113" width="11.25" customWidth="1"/>
+    <col min="16114" max="16114" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A5" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" ht="6.75" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A13" s="96"/>
+      <c r="B13" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A14" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="53">
+        <v>2</v>
+      </c>
+      <c r="C14" s="53">
+        <v>3</v>
+      </c>
+      <c r="D14" s="53">
+        <v>4</v>
+      </c>
+      <c r="E14" s="53">
+        <v>5</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="53">
+        <v>8</v>
+      </c>
+      <c r="I14" s="53">
+        <v>9</v>
+      </c>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A15" s="23">
+        <v>43224</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>VLOOKUP(B15,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D15" s="24">
+        <f>VLOOKUP(B15,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="25">
+        <v>25780</v>
+      </c>
+      <c r="G15" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" ref="H15:H16" si="0">F15*G15</f>
+        <v>399590000</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A16" s="23">
+        <v>43224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>VLOOKUP(B16,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D16" s="24">
+        <f>VLOOKUP(B16,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="25">
+        <v>25630</v>
+      </c>
+      <c r="G16" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="0"/>
+        <v>397265000</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A17" s="23">
+        <v>43230</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24" t="str">
+        <f>VLOOKUP(B17,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(B17,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="25">
+        <v>25980</v>
+      </c>
+      <c r="G17" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" ref="H17" si="1">F17*G17</f>
+        <v>402690000</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="66">
+        <f>SUM(H15:H18)</f>
+        <v>1199545000</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="48"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="48"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="48"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="48"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="48"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="48"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="48"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="48"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:G4"/>
+    <mergeCell ref="H2:I5"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:E7 F7">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="11" customWidth="1"/>
+    <col min="235" max="235" width="21" customWidth="1"/>
+    <col min="236" max="236" width="21.625" customWidth="1"/>
+    <col min="237" max="237" width="12.125" customWidth="1"/>
+    <col min="238" max="238" width="13.375" customWidth="1"/>
+    <col min="239" max="239" width="9.125" customWidth="1"/>
+    <col min="240" max="240" width="9.25" customWidth="1"/>
+    <col min="241" max="241" width="11.25" customWidth="1"/>
+    <col min="242" max="242" width="9.5" customWidth="1"/>
+    <col min="490" max="490" width="11" customWidth="1"/>
+    <col min="491" max="491" width="21" customWidth="1"/>
+    <col min="492" max="492" width="21.625" customWidth="1"/>
+    <col min="493" max="493" width="12.125" customWidth="1"/>
+    <col min="494" max="494" width="13.375" customWidth="1"/>
+    <col min="495" max="495" width="9.125" customWidth="1"/>
+    <col min="496" max="496" width="9.25" customWidth="1"/>
+    <col min="497" max="497" width="11.25" customWidth="1"/>
+    <col min="498" max="498" width="9.5" customWidth="1"/>
+    <col min="746" max="746" width="11" customWidth="1"/>
+    <col min="747" max="747" width="21" customWidth="1"/>
+    <col min="748" max="748" width="21.625" customWidth="1"/>
+    <col min="749" max="749" width="12.125" customWidth="1"/>
+    <col min="750" max="750" width="13.375" customWidth="1"/>
+    <col min="751" max="751" width="9.125" customWidth="1"/>
+    <col min="752" max="752" width="9.25" customWidth="1"/>
+    <col min="753" max="753" width="11.25" customWidth="1"/>
+    <col min="754" max="754" width="9.5" customWidth="1"/>
+    <col min="1002" max="1002" width="11" customWidth="1"/>
+    <col min="1003" max="1003" width="21" customWidth="1"/>
+    <col min="1004" max="1004" width="21.625" customWidth="1"/>
+    <col min="1005" max="1005" width="12.125" customWidth="1"/>
+    <col min="1006" max="1006" width="13.375" customWidth="1"/>
+    <col min="1007" max="1007" width="9.125" customWidth="1"/>
+    <col min="1008" max="1008" width="9.25" customWidth="1"/>
+    <col min="1009" max="1009" width="11.25" customWidth="1"/>
+    <col min="1010" max="1010" width="9.5" customWidth="1"/>
+    <col min="1258" max="1258" width="11" customWidth="1"/>
+    <col min="1259" max="1259" width="21" customWidth="1"/>
+    <col min="1260" max="1260" width="21.625" customWidth="1"/>
+    <col min="1261" max="1261" width="12.125" customWidth="1"/>
+    <col min="1262" max="1262" width="13.375" customWidth="1"/>
+    <col min="1263" max="1263" width="9.125" customWidth="1"/>
+    <col min="1264" max="1264" width="9.25" customWidth="1"/>
+    <col min="1265" max="1265" width="11.25" customWidth="1"/>
+    <col min="1266" max="1266" width="9.5" customWidth="1"/>
+    <col min="1514" max="1514" width="11" customWidth="1"/>
+    <col min="1515" max="1515" width="21" customWidth="1"/>
+    <col min="1516" max="1516" width="21.625" customWidth="1"/>
+    <col min="1517" max="1517" width="12.125" customWidth="1"/>
+    <col min="1518" max="1518" width="13.375" customWidth="1"/>
+    <col min="1519" max="1519" width="9.125" customWidth="1"/>
+    <col min="1520" max="1520" width="9.25" customWidth="1"/>
+    <col min="1521" max="1521" width="11.25" customWidth="1"/>
+    <col min="1522" max="1522" width="9.5" customWidth="1"/>
+    <col min="1770" max="1770" width="11" customWidth="1"/>
+    <col min="1771" max="1771" width="21" customWidth="1"/>
+    <col min="1772" max="1772" width="21.625" customWidth="1"/>
+    <col min="1773" max="1773" width="12.125" customWidth="1"/>
+    <col min="1774" max="1774" width="13.375" customWidth="1"/>
+    <col min="1775" max="1775" width="9.125" customWidth="1"/>
+    <col min="1776" max="1776" width="9.25" customWidth="1"/>
+    <col min="1777" max="1777" width="11.25" customWidth="1"/>
+    <col min="1778" max="1778" width="9.5" customWidth="1"/>
+    <col min="2026" max="2026" width="11" customWidth="1"/>
+    <col min="2027" max="2027" width="21" customWidth="1"/>
+    <col min="2028" max="2028" width="21.625" customWidth="1"/>
+    <col min="2029" max="2029" width="12.125" customWidth="1"/>
+    <col min="2030" max="2030" width="13.375" customWidth="1"/>
+    <col min="2031" max="2031" width="9.125" customWidth="1"/>
+    <col min="2032" max="2032" width="9.25" customWidth="1"/>
+    <col min="2033" max="2033" width="11.25" customWidth="1"/>
+    <col min="2034" max="2034" width="9.5" customWidth="1"/>
+    <col min="2282" max="2282" width="11" customWidth="1"/>
+    <col min="2283" max="2283" width="21" customWidth="1"/>
+    <col min="2284" max="2284" width="21.625" customWidth="1"/>
+    <col min="2285" max="2285" width="12.125" customWidth="1"/>
+    <col min="2286" max="2286" width="13.375" customWidth="1"/>
+    <col min="2287" max="2287" width="9.125" customWidth="1"/>
+    <col min="2288" max="2288" width="9.25" customWidth="1"/>
+    <col min="2289" max="2289" width="11.25" customWidth="1"/>
+    <col min="2290" max="2290" width="9.5" customWidth="1"/>
+    <col min="2538" max="2538" width="11" customWidth="1"/>
+    <col min="2539" max="2539" width="21" customWidth="1"/>
+    <col min="2540" max="2540" width="21.625" customWidth="1"/>
+    <col min="2541" max="2541" width="12.125" customWidth="1"/>
+    <col min="2542" max="2542" width="13.375" customWidth="1"/>
+    <col min="2543" max="2543" width="9.125" customWidth="1"/>
+    <col min="2544" max="2544" width="9.25" customWidth="1"/>
+    <col min="2545" max="2545" width="11.25" customWidth="1"/>
+    <col min="2546" max="2546" width="9.5" customWidth="1"/>
+    <col min="2794" max="2794" width="11" customWidth="1"/>
+    <col min="2795" max="2795" width="21" customWidth="1"/>
+    <col min="2796" max="2796" width="21.625" customWidth="1"/>
+    <col min="2797" max="2797" width="12.125" customWidth="1"/>
+    <col min="2798" max="2798" width="13.375" customWidth="1"/>
+    <col min="2799" max="2799" width="9.125" customWidth="1"/>
+    <col min="2800" max="2800" width="9.25" customWidth="1"/>
+    <col min="2801" max="2801" width="11.25" customWidth="1"/>
+    <col min="2802" max="2802" width="9.5" customWidth="1"/>
+    <col min="3050" max="3050" width="11" customWidth="1"/>
+    <col min="3051" max="3051" width="21" customWidth="1"/>
+    <col min="3052" max="3052" width="21.625" customWidth="1"/>
+    <col min="3053" max="3053" width="12.125" customWidth="1"/>
+    <col min="3054" max="3054" width="13.375" customWidth="1"/>
+    <col min="3055" max="3055" width="9.125" customWidth="1"/>
+    <col min="3056" max="3056" width="9.25" customWidth="1"/>
+    <col min="3057" max="3057" width="11.25" customWidth="1"/>
+    <col min="3058" max="3058" width="9.5" customWidth="1"/>
+    <col min="3306" max="3306" width="11" customWidth="1"/>
+    <col min="3307" max="3307" width="21" customWidth="1"/>
+    <col min="3308" max="3308" width="21.625" customWidth="1"/>
+    <col min="3309" max="3309" width="12.125" customWidth="1"/>
+    <col min="3310" max="3310" width="13.375" customWidth="1"/>
+    <col min="3311" max="3311" width="9.125" customWidth="1"/>
+    <col min="3312" max="3312" width="9.25" customWidth="1"/>
+    <col min="3313" max="3313" width="11.25" customWidth="1"/>
+    <col min="3314" max="3314" width="9.5" customWidth="1"/>
+    <col min="3562" max="3562" width="11" customWidth="1"/>
+    <col min="3563" max="3563" width="21" customWidth="1"/>
+    <col min="3564" max="3564" width="21.625" customWidth="1"/>
+    <col min="3565" max="3565" width="12.125" customWidth="1"/>
+    <col min="3566" max="3566" width="13.375" customWidth="1"/>
+    <col min="3567" max="3567" width="9.125" customWidth="1"/>
+    <col min="3568" max="3568" width="9.25" customWidth="1"/>
+    <col min="3569" max="3569" width="11.25" customWidth="1"/>
+    <col min="3570" max="3570" width="9.5" customWidth="1"/>
+    <col min="3818" max="3818" width="11" customWidth="1"/>
+    <col min="3819" max="3819" width="21" customWidth="1"/>
+    <col min="3820" max="3820" width="21.625" customWidth="1"/>
+    <col min="3821" max="3821" width="12.125" customWidth="1"/>
+    <col min="3822" max="3822" width="13.375" customWidth="1"/>
+    <col min="3823" max="3823" width="9.125" customWidth="1"/>
+    <col min="3824" max="3824" width="9.25" customWidth="1"/>
+    <col min="3825" max="3825" width="11.25" customWidth="1"/>
+    <col min="3826" max="3826" width="9.5" customWidth="1"/>
+    <col min="4074" max="4074" width="11" customWidth="1"/>
+    <col min="4075" max="4075" width="21" customWidth="1"/>
+    <col min="4076" max="4076" width="21.625" customWidth="1"/>
+    <col min="4077" max="4077" width="12.125" customWidth="1"/>
+    <col min="4078" max="4078" width="13.375" customWidth="1"/>
+    <col min="4079" max="4079" width="9.125" customWidth="1"/>
+    <col min="4080" max="4080" width="9.25" customWidth="1"/>
+    <col min="4081" max="4081" width="11.25" customWidth="1"/>
+    <col min="4082" max="4082" width="9.5" customWidth="1"/>
+    <col min="4330" max="4330" width="11" customWidth="1"/>
+    <col min="4331" max="4331" width="21" customWidth="1"/>
+    <col min="4332" max="4332" width="21.625" customWidth="1"/>
+    <col min="4333" max="4333" width="12.125" customWidth="1"/>
+    <col min="4334" max="4334" width="13.375" customWidth="1"/>
+    <col min="4335" max="4335" width="9.125" customWidth="1"/>
+    <col min="4336" max="4336" width="9.25" customWidth="1"/>
+    <col min="4337" max="4337" width="11.25" customWidth="1"/>
+    <col min="4338" max="4338" width="9.5" customWidth="1"/>
+    <col min="4586" max="4586" width="11" customWidth="1"/>
+    <col min="4587" max="4587" width="21" customWidth="1"/>
+    <col min="4588" max="4588" width="21.625" customWidth="1"/>
+    <col min="4589" max="4589" width="12.125" customWidth="1"/>
+    <col min="4590" max="4590" width="13.375" customWidth="1"/>
+    <col min="4591" max="4591" width="9.125" customWidth="1"/>
+    <col min="4592" max="4592" width="9.25" customWidth="1"/>
+    <col min="4593" max="4593" width="11.25" customWidth="1"/>
+    <col min="4594" max="4594" width="9.5" customWidth="1"/>
+    <col min="4842" max="4842" width="11" customWidth="1"/>
+    <col min="4843" max="4843" width="21" customWidth="1"/>
+    <col min="4844" max="4844" width="21.625" customWidth="1"/>
+    <col min="4845" max="4845" width="12.125" customWidth="1"/>
+    <col min="4846" max="4846" width="13.375" customWidth="1"/>
+    <col min="4847" max="4847" width="9.125" customWidth="1"/>
+    <col min="4848" max="4848" width="9.25" customWidth="1"/>
+    <col min="4849" max="4849" width="11.25" customWidth="1"/>
+    <col min="4850" max="4850" width="9.5" customWidth="1"/>
+    <col min="5098" max="5098" width="11" customWidth="1"/>
+    <col min="5099" max="5099" width="21" customWidth="1"/>
+    <col min="5100" max="5100" width="21.625" customWidth="1"/>
+    <col min="5101" max="5101" width="12.125" customWidth="1"/>
+    <col min="5102" max="5102" width="13.375" customWidth="1"/>
+    <col min="5103" max="5103" width="9.125" customWidth="1"/>
+    <col min="5104" max="5104" width="9.25" customWidth="1"/>
+    <col min="5105" max="5105" width="11.25" customWidth="1"/>
+    <col min="5106" max="5106" width="9.5" customWidth="1"/>
+    <col min="5354" max="5354" width="11" customWidth="1"/>
+    <col min="5355" max="5355" width="21" customWidth="1"/>
+    <col min="5356" max="5356" width="21.625" customWidth="1"/>
+    <col min="5357" max="5357" width="12.125" customWidth="1"/>
+    <col min="5358" max="5358" width="13.375" customWidth="1"/>
+    <col min="5359" max="5359" width="9.125" customWidth="1"/>
+    <col min="5360" max="5360" width="9.25" customWidth="1"/>
+    <col min="5361" max="5361" width="11.25" customWidth="1"/>
+    <col min="5362" max="5362" width="9.5" customWidth="1"/>
+    <col min="5610" max="5610" width="11" customWidth="1"/>
+    <col min="5611" max="5611" width="21" customWidth="1"/>
+    <col min="5612" max="5612" width="21.625" customWidth="1"/>
+    <col min="5613" max="5613" width="12.125" customWidth="1"/>
+    <col min="5614" max="5614" width="13.375" customWidth="1"/>
+    <col min="5615" max="5615" width="9.125" customWidth="1"/>
+    <col min="5616" max="5616" width="9.25" customWidth="1"/>
+    <col min="5617" max="5617" width="11.25" customWidth="1"/>
+    <col min="5618" max="5618" width="9.5" customWidth="1"/>
+    <col min="5866" max="5866" width="11" customWidth="1"/>
+    <col min="5867" max="5867" width="21" customWidth="1"/>
+    <col min="5868" max="5868" width="21.625" customWidth="1"/>
+    <col min="5869" max="5869" width="12.125" customWidth="1"/>
+    <col min="5870" max="5870" width="13.375" customWidth="1"/>
+    <col min="5871" max="5871" width="9.125" customWidth="1"/>
+    <col min="5872" max="5872" width="9.25" customWidth="1"/>
+    <col min="5873" max="5873" width="11.25" customWidth="1"/>
+    <col min="5874" max="5874" width="9.5" customWidth="1"/>
+    <col min="6122" max="6122" width="11" customWidth="1"/>
+    <col min="6123" max="6123" width="21" customWidth="1"/>
+    <col min="6124" max="6124" width="21.625" customWidth="1"/>
+    <col min="6125" max="6125" width="12.125" customWidth="1"/>
+    <col min="6126" max="6126" width="13.375" customWidth="1"/>
+    <col min="6127" max="6127" width="9.125" customWidth="1"/>
+    <col min="6128" max="6128" width="9.25" customWidth="1"/>
+    <col min="6129" max="6129" width="11.25" customWidth="1"/>
+    <col min="6130" max="6130" width="9.5" customWidth="1"/>
+    <col min="6378" max="6378" width="11" customWidth="1"/>
+    <col min="6379" max="6379" width="21" customWidth="1"/>
+    <col min="6380" max="6380" width="21.625" customWidth="1"/>
+    <col min="6381" max="6381" width="12.125" customWidth="1"/>
+    <col min="6382" max="6382" width="13.375" customWidth="1"/>
+    <col min="6383" max="6383" width="9.125" customWidth="1"/>
+    <col min="6384" max="6384" width="9.25" customWidth="1"/>
+    <col min="6385" max="6385" width="11.25" customWidth="1"/>
+    <col min="6386" max="6386" width="9.5" customWidth="1"/>
+    <col min="6634" max="6634" width="11" customWidth="1"/>
+    <col min="6635" max="6635" width="21" customWidth="1"/>
+    <col min="6636" max="6636" width="21.625" customWidth="1"/>
+    <col min="6637" max="6637" width="12.125" customWidth="1"/>
+    <col min="6638" max="6638" width="13.375" customWidth="1"/>
+    <col min="6639" max="6639" width="9.125" customWidth="1"/>
+    <col min="6640" max="6640" width="9.25" customWidth="1"/>
+    <col min="6641" max="6641" width="11.25" customWidth="1"/>
+    <col min="6642" max="6642" width="9.5" customWidth="1"/>
+    <col min="6890" max="6890" width="11" customWidth="1"/>
+    <col min="6891" max="6891" width="21" customWidth="1"/>
+    <col min="6892" max="6892" width="21.625" customWidth="1"/>
+    <col min="6893" max="6893" width="12.125" customWidth="1"/>
+    <col min="6894" max="6894" width="13.375" customWidth="1"/>
+    <col min="6895" max="6895" width="9.125" customWidth="1"/>
+    <col min="6896" max="6896" width="9.25" customWidth="1"/>
+    <col min="6897" max="6897" width="11.25" customWidth="1"/>
+    <col min="6898" max="6898" width="9.5" customWidth="1"/>
+    <col min="7146" max="7146" width="11" customWidth="1"/>
+    <col min="7147" max="7147" width="21" customWidth="1"/>
+    <col min="7148" max="7148" width="21.625" customWidth="1"/>
+    <col min="7149" max="7149" width="12.125" customWidth="1"/>
+    <col min="7150" max="7150" width="13.375" customWidth="1"/>
+    <col min="7151" max="7151" width="9.125" customWidth="1"/>
+    <col min="7152" max="7152" width="9.25" customWidth="1"/>
+    <col min="7153" max="7153" width="11.25" customWidth="1"/>
+    <col min="7154" max="7154" width="9.5" customWidth="1"/>
+    <col min="7402" max="7402" width="11" customWidth="1"/>
+    <col min="7403" max="7403" width="21" customWidth="1"/>
+    <col min="7404" max="7404" width="21.625" customWidth="1"/>
+    <col min="7405" max="7405" width="12.125" customWidth="1"/>
+    <col min="7406" max="7406" width="13.375" customWidth="1"/>
+    <col min="7407" max="7407" width="9.125" customWidth="1"/>
+    <col min="7408" max="7408" width="9.25" customWidth="1"/>
+    <col min="7409" max="7409" width="11.25" customWidth="1"/>
+    <col min="7410" max="7410" width="9.5" customWidth="1"/>
+    <col min="7658" max="7658" width="11" customWidth="1"/>
+    <col min="7659" max="7659" width="21" customWidth="1"/>
+    <col min="7660" max="7660" width="21.625" customWidth="1"/>
+    <col min="7661" max="7661" width="12.125" customWidth="1"/>
+    <col min="7662" max="7662" width="13.375" customWidth="1"/>
+    <col min="7663" max="7663" width="9.125" customWidth="1"/>
+    <col min="7664" max="7664" width="9.25" customWidth="1"/>
+    <col min="7665" max="7665" width="11.25" customWidth="1"/>
+    <col min="7666" max="7666" width="9.5" customWidth="1"/>
+    <col min="7914" max="7914" width="11" customWidth="1"/>
+    <col min="7915" max="7915" width="21" customWidth="1"/>
+    <col min="7916" max="7916" width="21.625" customWidth="1"/>
+    <col min="7917" max="7917" width="12.125" customWidth="1"/>
+    <col min="7918" max="7918" width="13.375" customWidth="1"/>
+    <col min="7919" max="7919" width="9.125" customWidth="1"/>
+    <col min="7920" max="7920" width="9.25" customWidth="1"/>
+    <col min="7921" max="7921" width="11.25" customWidth="1"/>
+    <col min="7922" max="7922" width="9.5" customWidth="1"/>
+    <col min="8170" max="8170" width="11" customWidth="1"/>
+    <col min="8171" max="8171" width="21" customWidth="1"/>
+    <col min="8172" max="8172" width="21.625" customWidth="1"/>
+    <col min="8173" max="8173" width="12.125" customWidth="1"/>
+    <col min="8174" max="8174" width="13.375" customWidth="1"/>
+    <col min="8175" max="8175" width="9.125" customWidth="1"/>
+    <col min="8176" max="8176" width="9.25" customWidth="1"/>
+    <col min="8177" max="8177" width="11.25" customWidth="1"/>
+    <col min="8178" max="8178" width="9.5" customWidth="1"/>
+    <col min="8426" max="8426" width="11" customWidth="1"/>
+    <col min="8427" max="8427" width="21" customWidth="1"/>
+    <col min="8428" max="8428" width="21.625" customWidth="1"/>
+    <col min="8429" max="8429" width="12.125" customWidth="1"/>
+    <col min="8430" max="8430" width="13.375" customWidth="1"/>
+    <col min="8431" max="8431" width="9.125" customWidth="1"/>
+    <col min="8432" max="8432" width="9.25" customWidth="1"/>
+    <col min="8433" max="8433" width="11.25" customWidth="1"/>
+    <col min="8434" max="8434" width="9.5" customWidth="1"/>
+    <col min="8682" max="8682" width="11" customWidth="1"/>
+    <col min="8683" max="8683" width="21" customWidth="1"/>
+    <col min="8684" max="8684" width="21.625" customWidth="1"/>
+    <col min="8685" max="8685" width="12.125" customWidth="1"/>
+    <col min="8686" max="8686" width="13.375" customWidth="1"/>
+    <col min="8687" max="8687" width="9.125" customWidth="1"/>
+    <col min="8688" max="8688" width="9.25" customWidth="1"/>
+    <col min="8689" max="8689" width="11.25" customWidth="1"/>
+    <col min="8690" max="8690" width="9.5" customWidth="1"/>
+    <col min="8938" max="8938" width="11" customWidth="1"/>
+    <col min="8939" max="8939" width="21" customWidth="1"/>
+    <col min="8940" max="8940" width="21.625" customWidth="1"/>
+    <col min="8941" max="8941" width="12.125" customWidth="1"/>
+    <col min="8942" max="8942" width="13.375" customWidth="1"/>
+    <col min="8943" max="8943" width="9.125" customWidth="1"/>
+    <col min="8944" max="8944" width="9.25" customWidth="1"/>
+    <col min="8945" max="8945" width="11.25" customWidth="1"/>
+    <col min="8946" max="8946" width="9.5" customWidth="1"/>
+    <col min="9194" max="9194" width="11" customWidth="1"/>
+    <col min="9195" max="9195" width="21" customWidth="1"/>
+    <col min="9196" max="9196" width="21.625" customWidth="1"/>
+    <col min="9197" max="9197" width="12.125" customWidth="1"/>
+    <col min="9198" max="9198" width="13.375" customWidth="1"/>
+    <col min="9199" max="9199" width="9.125" customWidth="1"/>
+    <col min="9200" max="9200" width="9.25" customWidth="1"/>
+    <col min="9201" max="9201" width="11.25" customWidth="1"/>
+    <col min="9202" max="9202" width="9.5" customWidth="1"/>
+    <col min="9450" max="9450" width="11" customWidth="1"/>
+    <col min="9451" max="9451" width="21" customWidth="1"/>
+    <col min="9452" max="9452" width="21.625" customWidth="1"/>
+    <col min="9453" max="9453" width="12.125" customWidth="1"/>
+    <col min="9454" max="9454" width="13.375" customWidth="1"/>
+    <col min="9455" max="9455" width="9.125" customWidth="1"/>
+    <col min="9456" max="9456" width="9.25" customWidth="1"/>
+    <col min="9457" max="9457" width="11.25" customWidth="1"/>
+    <col min="9458" max="9458" width="9.5" customWidth="1"/>
+    <col min="9706" max="9706" width="11" customWidth="1"/>
+    <col min="9707" max="9707" width="21" customWidth="1"/>
+    <col min="9708" max="9708" width="21.625" customWidth="1"/>
+    <col min="9709" max="9709" width="12.125" customWidth="1"/>
+    <col min="9710" max="9710" width="13.375" customWidth="1"/>
+    <col min="9711" max="9711" width="9.125" customWidth="1"/>
+    <col min="9712" max="9712" width="9.25" customWidth="1"/>
+    <col min="9713" max="9713" width="11.25" customWidth="1"/>
+    <col min="9714" max="9714" width="9.5" customWidth="1"/>
+    <col min="9962" max="9962" width="11" customWidth="1"/>
+    <col min="9963" max="9963" width="21" customWidth="1"/>
+    <col min="9964" max="9964" width="21.625" customWidth="1"/>
+    <col min="9965" max="9965" width="12.125" customWidth="1"/>
+    <col min="9966" max="9966" width="13.375" customWidth="1"/>
+    <col min="9967" max="9967" width="9.125" customWidth="1"/>
+    <col min="9968" max="9968" width="9.25" customWidth="1"/>
+    <col min="9969" max="9969" width="11.25" customWidth="1"/>
+    <col min="9970" max="9970" width="9.5" customWidth="1"/>
+    <col min="10218" max="10218" width="11" customWidth="1"/>
+    <col min="10219" max="10219" width="21" customWidth="1"/>
+    <col min="10220" max="10220" width="21.625" customWidth="1"/>
+    <col min="10221" max="10221" width="12.125" customWidth="1"/>
+    <col min="10222" max="10222" width="13.375" customWidth="1"/>
+    <col min="10223" max="10223" width="9.125" customWidth="1"/>
+    <col min="10224" max="10224" width="9.25" customWidth="1"/>
+    <col min="10225" max="10225" width="11.25" customWidth="1"/>
+    <col min="10226" max="10226" width="9.5" customWidth="1"/>
+    <col min="10474" max="10474" width="11" customWidth="1"/>
+    <col min="10475" max="10475" width="21" customWidth="1"/>
+    <col min="10476" max="10476" width="21.625" customWidth="1"/>
+    <col min="10477" max="10477" width="12.125" customWidth="1"/>
+    <col min="10478" max="10478" width="13.375" customWidth="1"/>
+    <col min="10479" max="10479" width="9.125" customWidth="1"/>
+    <col min="10480" max="10480" width="9.25" customWidth="1"/>
+    <col min="10481" max="10481" width="11.25" customWidth="1"/>
+    <col min="10482" max="10482" width="9.5" customWidth="1"/>
+    <col min="10730" max="10730" width="11" customWidth="1"/>
+    <col min="10731" max="10731" width="21" customWidth="1"/>
+    <col min="10732" max="10732" width="21.625" customWidth="1"/>
+    <col min="10733" max="10733" width="12.125" customWidth="1"/>
+    <col min="10734" max="10734" width="13.375" customWidth="1"/>
+    <col min="10735" max="10735" width="9.125" customWidth="1"/>
+    <col min="10736" max="10736" width="9.25" customWidth="1"/>
+    <col min="10737" max="10737" width="11.25" customWidth="1"/>
+    <col min="10738" max="10738" width="9.5" customWidth="1"/>
+    <col min="10986" max="10986" width="11" customWidth="1"/>
+    <col min="10987" max="10987" width="21" customWidth="1"/>
+    <col min="10988" max="10988" width="21.625" customWidth="1"/>
+    <col min="10989" max="10989" width="12.125" customWidth="1"/>
+    <col min="10990" max="10990" width="13.375" customWidth="1"/>
+    <col min="10991" max="10991" width="9.125" customWidth="1"/>
+    <col min="10992" max="10992" width="9.25" customWidth="1"/>
+    <col min="10993" max="10993" width="11.25" customWidth="1"/>
+    <col min="10994" max="10994" width="9.5" customWidth="1"/>
+    <col min="11242" max="11242" width="11" customWidth="1"/>
+    <col min="11243" max="11243" width="21" customWidth="1"/>
+    <col min="11244" max="11244" width="21.625" customWidth="1"/>
+    <col min="11245" max="11245" width="12.125" customWidth="1"/>
+    <col min="11246" max="11246" width="13.375" customWidth="1"/>
+    <col min="11247" max="11247" width="9.125" customWidth="1"/>
+    <col min="11248" max="11248" width="9.25" customWidth="1"/>
+    <col min="11249" max="11249" width="11.25" customWidth="1"/>
+    <col min="11250" max="11250" width="9.5" customWidth="1"/>
+    <col min="11498" max="11498" width="11" customWidth="1"/>
+    <col min="11499" max="11499" width="21" customWidth="1"/>
+    <col min="11500" max="11500" width="21.625" customWidth="1"/>
+    <col min="11501" max="11501" width="12.125" customWidth="1"/>
+    <col min="11502" max="11502" width="13.375" customWidth="1"/>
+    <col min="11503" max="11503" width="9.125" customWidth="1"/>
+    <col min="11504" max="11504" width="9.25" customWidth="1"/>
+    <col min="11505" max="11505" width="11.25" customWidth="1"/>
+    <col min="11506" max="11506" width="9.5" customWidth="1"/>
+    <col min="11754" max="11754" width="11" customWidth="1"/>
+    <col min="11755" max="11755" width="21" customWidth="1"/>
+    <col min="11756" max="11756" width="21.625" customWidth="1"/>
+    <col min="11757" max="11757" width="12.125" customWidth="1"/>
+    <col min="11758" max="11758" width="13.375" customWidth="1"/>
+    <col min="11759" max="11759" width="9.125" customWidth="1"/>
+    <col min="11760" max="11760" width="9.25" customWidth="1"/>
+    <col min="11761" max="11761" width="11.25" customWidth="1"/>
+    <col min="11762" max="11762" width="9.5" customWidth="1"/>
+    <col min="12010" max="12010" width="11" customWidth="1"/>
+    <col min="12011" max="12011" width="21" customWidth="1"/>
+    <col min="12012" max="12012" width="21.625" customWidth="1"/>
+    <col min="12013" max="12013" width="12.125" customWidth="1"/>
+    <col min="12014" max="12014" width="13.375" customWidth="1"/>
+    <col min="12015" max="12015" width="9.125" customWidth="1"/>
+    <col min="12016" max="12016" width="9.25" customWidth="1"/>
+    <col min="12017" max="12017" width="11.25" customWidth="1"/>
+    <col min="12018" max="12018" width="9.5" customWidth="1"/>
+    <col min="12266" max="12266" width="11" customWidth="1"/>
+    <col min="12267" max="12267" width="21" customWidth="1"/>
+    <col min="12268" max="12268" width="21.625" customWidth="1"/>
+    <col min="12269" max="12269" width="12.125" customWidth="1"/>
+    <col min="12270" max="12270" width="13.375" customWidth="1"/>
+    <col min="12271" max="12271" width="9.125" customWidth="1"/>
+    <col min="12272" max="12272" width="9.25" customWidth="1"/>
+    <col min="12273" max="12273" width="11.25" customWidth="1"/>
+    <col min="12274" max="12274" width="9.5" customWidth="1"/>
+    <col min="12522" max="12522" width="11" customWidth="1"/>
+    <col min="12523" max="12523" width="21" customWidth="1"/>
+    <col min="12524" max="12524" width="21.625" customWidth="1"/>
+    <col min="12525" max="12525" width="12.125" customWidth="1"/>
+    <col min="12526" max="12526" width="13.375" customWidth="1"/>
+    <col min="12527" max="12527" width="9.125" customWidth="1"/>
+    <col min="12528" max="12528" width="9.25" customWidth="1"/>
+    <col min="12529" max="12529" width="11.25" customWidth="1"/>
+    <col min="12530" max="12530" width="9.5" customWidth="1"/>
+    <col min="12778" max="12778" width="11" customWidth="1"/>
+    <col min="12779" max="12779" width="21" customWidth="1"/>
+    <col min="12780" max="12780" width="21.625" customWidth="1"/>
+    <col min="12781" max="12781" width="12.125" customWidth="1"/>
+    <col min="12782" max="12782" width="13.375" customWidth="1"/>
+    <col min="12783" max="12783" width="9.125" customWidth="1"/>
+    <col min="12784" max="12784" width="9.25" customWidth="1"/>
+    <col min="12785" max="12785" width="11.25" customWidth="1"/>
+    <col min="12786" max="12786" width="9.5" customWidth="1"/>
+    <col min="13034" max="13034" width="11" customWidth="1"/>
+    <col min="13035" max="13035" width="21" customWidth="1"/>
+    <col min="13036" max="13036" width="21.625" customWidth="1"/>
+    <col min="13037" max="13037" width="12.125" customWidth="1"/>
+    <col min="13038" max="13038" width="13.375" customWidth="1"/>
+    <col min="13039" max="13039" width="9.125" customWidth="1"/>
+    <col min="13040" max="13040" width="9.25" customWidth="1"/>
+    <col min="13041" max="13041" width="11.25" customWidth="1"/>
+    <col min="13042" max="13042" width="9.5" customWidth="1"/>
+    <col min="13290" max="13290" width="11" customWidth="1"/>
+    <col min="13291" max="13291" width="21" customWidth="1"/>
+    <col min="13292" max="13292" width="21.625" customWidth="1"/>
+    <col min="13293" max="13293" width="12.125" customWidth="1"/>
+    <col min="13294" max="13294" width="13.375" customWidth="1"/>
+    <col min="13295" max="13295" width="9.125" customWidth="1"/>
+    <col min="13296" max="13296" width="9.25" customWidth="1"/>
+    <col min="13297" max="13297" width="11.25" customWidth="1"/>
+    <col min="13298" max="13298" width="9.5" customWidth="1"/>
+    <col min="13546" max="13546" width="11" customWidth="1"/>
+    <col min="13547" max="13547" width="21" customWidth="1"/>
+    <col min="13548" max="13548" width="21.625" customWidth="1"/>
+    <col min="13549" max="13549" width="12.125" customWidth="1"/>
+    <col min="13550" max="13550" width="13.375" customWidth="1"/>
+    <col min="13551" max="13551" width="9.125" customWidth="1"/>
+    <col min="13552" max="13552" width="9.25" customWidth="1"/>
+    <col min="13553" max="13553" width="11.25" customWidth="1"/>
+    <col min="13554" max="13554" width="9.5" customWidth="1"/>
+    <col min="13802" max="13802" width="11" customWidth="1"/>
+    <col min="13803" max="13803" width="21" customWidth="1"/>
+    <col min="13804" max="13804" width="21.625" customWidth="1"/>
+    <col min="13805" max="13805" width="12.125" customWidth="1"/>
+    <col min="13806" max="13806" width="13.375" customWidth="1"/>
+    <col min="13807" max="13807" width="9.125" customWidth="1"/>
+    <col min="13808" max="13808" width="9.25" customWidth="1"/>
+    <col min="13809" max="13809" width="11.25" customWidth="1"/>
+    <col min="13810" max="13810" width="9.5" customWidth="1"/>
+    <col min="14058" max="14058" width="11" customWidth="1"/>
+    <col min="14059" max="14059" width="21" customWidth="1"/>
+    <col min="14060" max="14060" width="21.625" customWidth="1"/>
+    <col min="14061" max="14061" width="12.125" customWidth="1"/>
+    <col min="14062" max="14062" width="13.375" customWidth="1"/>
+    <col min="14063" max="14063" width="9.125" customWidth="1"/>
+    <col min="14064" max="14064" width="9.25" customWidth="1"/>
+    <col min="14065" max="14065" width="11.25" customWidth="1"/>
+    <col min="14066" max="14066" width="9.5" customWidth="1"/>
+    <col min="14314" max="14314" width="11" customWidth="1"/>
+    <col min="14315" max="14315" width="21" customWidth="1"/>
+    <col min="14316" max="14316" width="21.625" customWidth="1"/>
+    <col min="14317" max="14317" width="12.125" customWidth="1"/>
+    <col min="14318" max="14318" width="13.375" customWidth="1"/>
+    <col min="14319" max="14319" width="9.125" customWidth="1"/>
+    <col min="14320" max="14320" width="9.25" customWidth="1"/>
+    <col min="14321" max="14321" width="11.25" customWidth="1"/>
+    <col min="14322" max="14322" width="9.5" customWidth="1"/>
+    <col min="14570" max="14570" width="11" customWidth="1"/>
+    <col min="14571" max="14571" width="21" customWidth="1"/>
+    <col min="14572" max="14572" width="21.625" customWidth="1"/>
+    <col min="14573" max="14573" width="12.125" customWidth="1"/>
+    <col min="14574" max="14574" width="13.375" customWidth="1"/>
+    <col min="14575" max="14575" width="9.125" customWidth="1"/>
+    <col min="14576" max="14576" width="9.25" customWidth="1"/>
+    <col min="14577" max="14577" width="11.25" customWidth="1"/>
+    <col min="14578" max="14578" width="9.5" customWidth="1"/>
+    <col min="14826" max="14826" width="11" customWidth="1"/>
+    <col min="14827" max="14827" width="21" customWidth="1"/>
+    <col min="14828" max="14828" width="21.625" customWidth="1"/>
+    <col min="14829" max="14829" width="12.125" customWidth="1"/>
+    <col min="14830" max="14830" width="13.375" customWidth="1"/>
+    <col min="14831" max="14831" width="9.125" customWidth="1"/>
+    <col min="14832" max="14832" width="9.25" customWidth="1"/>
+    <col min="14833" max="14833" width="11.25" customWidth="1"/>
+    <col min="14834" max="14834" width="9.5" customWidth="1"/>
+    <col min="15082" max="15082" width="11" customWidth="1"/>
+    <col min="15083" max="15083" width="21" customWidth="1"/>
+    <col min="15084" max="15084" width="21.625" customWidth="1"/>
+    <col min="15085" max="15085" width="12.125" customWidth="1"/>
+    <col min="15086" max="15086" width="13.375" customWidth="1"/>
+    <col min="15087" max="15087" width="9.125" customWidth="1"/>
+    <col min="15088" max="15088" width="9.25" customWidth="1"/>
+    <col min="15089" max="15089" width="11.25" customWidth="1"/>
+    <col min="15090" max="15090" width="9.5" customWidth="1"/>
+    <col min="15338" max="15338" width="11" customWidth="1"/>
+    <col min="15339" max="15339" width="21" customWidth="1"/>
+    <col min="15340" max="15340" width="21.625" customWidth="1"/>
+    <col min="15341" max="15341" width="12.125" customWidth="1"/>
+    <col min="15342" max="15342" width="13.375" customWidth="1"/>
+    <col min="15343" max="15343" width="9.125" customWidth="1"/>
+    <col min="15344" max="15344" width="9.25" customWidth="1"/>
+    <col min="15345" max="15345" width="11.25" customWidth="1"/>
+    <col min="15346" max="15346" width="9.5" customWidth="1"/>
+    <col min="15594" max="15594" width="11" customWidth="1"/>
+    <col min="15595" max="15595" width="21" customWidth="1"/>
+    <col min="15596" max="15596" width="21.625" customWidth="1"/>
+    <col min="15597" max="15597" width="12.125" customWidth="1"/>
+    <col min="15598" max="15598" width="13.375" customWidth="1"/>
+    <col min="15599" max="15599" width="9.125" customWidth="1"/>
+    <col min="15600" max="15600" width="9.25" customWidth="1"/>
+    <col min="15601" max="15601" width="11.25" customWidth="1"/>
+    <col min="15602" max="15602" width="9.5" customWidth="1"/>
+    <col min="15850" max="15850" width="11" customWidth="1"/>
+    <col min="15851" max="15851" width="21" customWidth="1"/>
+    <col min="15852" max="15852" width="21.625" customWidth="1"/>
+    <col min="15853" max="15853" width="12.125" customWidth="1"/>
+    <col min="15854" max="15854" width="13.375" customWidth="1"/>
+    <col min="15855" max="15855" width="9.125" customWidth="1"/>
+    <col min="15856" max="15856" width="9.25" customWidth="1"/>
+    <col min="15857" max="15857" width="11.25" customWidth="1"/>
+    <col min="15858" max="15858" width="9.5" customWidth="1"/>
+    <col min="16106" max="16106" width="11" customWidth="1"/>
+    <col min="16107" max="16107" width="21" customWidth="1"/>
+    <col min="16108" max="16108" width="21.625" customWidth="1"/>
+    <col min="16109" max="16109" width="12.125" customWidth="1"/>
+    <col min="16110" max="16110" width="13.375" customWidth="1"/>
+    <col min="16111" max="16111" width="9.125" customWidth="1"/>
+    <col min="16112" max="16112" width="9.25" customWidth="1"/>
+    <col min="16113" max="16113" width="11.25" customWidth="1"/>
+    <col min="16114" max="16114" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A5" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" ht="6.75" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A13" s="96"/>
+      <c r="B13" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A14" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="53">
+        <v>2</v>
+      </c>
+      <c r="C14" s="53">
+        <v>3</v>
+      </c>
+      <c r="D14" s="53">
+        <v>4</v>
+      </c>
+      <c r="E14" s="53">
+        <v>5</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="53">
+        <v>8</v>
+      </c>
+      <c r="I14" s="53">
+        <v>9</v>
+      </c>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A15" s="23">
+        <v>43235</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="24" t="str">
+        <f>VLOOKUP(B15,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Long Hương - Bình Thuận</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>VLOOKUP(B15,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>020714486</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="25">
+        <v>24750</v>
+      </c>
+      <c r="G15" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" ref="H15:H19" si="0">F15*G15</f>
+        <v>383625000</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A16" s="23">
+        <v>43235</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="24" t="str">
+        <f>VLOOKUP(B16,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D16" s="24">
+        <f>VLOOKUP(B16,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="25">
+        <v>24560</v>
+      </c>
+      <c r="G16" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="0"/>
+        <v>380680000</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A17" s="23">
+        <v>43235</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24" t="str">
+        <f>VLOOKUP(B17,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(B17,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="25">
+        <v>23560</v>
+      </c>
+      <c r="G17" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" ref="H17:H18" si="1">F17*G17</f>
+        <v>365180000</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A18" s="23">
+        <v>43241</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24" t="str">
+        <f>VLOOKUP(B18,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D18" s="24">
+        <f>VLOOKUP(B18,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260850613</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25">
+        <v>24580</v>
+      </c>
+      <c r="G18" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="1"/>
+        <v>380990000</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A19" s="23">
+        <v>43241</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="24" t="str">
+        <f>VLOOKUP(B19,[1]Vine!$A$12:$E$90,3,0)</f>
+        <v>Phan Thiết - Bình Thuận</v>
+      </c>
+      <c r="D19" s="24">
+        <f>VLOOKUP(B19,[1]Vine!$A$12:$E$90,2,0)</f>
+        <v>260178873</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="25">
+        <v>23580</v>
+      </c>
+      <c r="G19" s="26">
+        <v>15500</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="0"/>
+        <v>365490000</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A22" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="66">
+        <f>SUM(H15:H20)</f>
+        <v>1875965000</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="48"/>
+      <c r="B25" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="48"/>
+      <c r="B26" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="48"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="48"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="48"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="48"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="48"/>
+      <c r="B31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="48"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:G4"/>
+    <mergeCell ref="H2:I5"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:E7 F7">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="48" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="50" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="47" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="47" customWidth="1"/>
+    <col min="10" max="10" width="9" style="47"/>
+    <col min="257" max="257" width="9.75" customWidth="1"/>
+    <col min="258" max="258" width="21.125" customWidth="1"/>
+    <col min="259" max="259" width="21.625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
+    <col min="261" max="261" width="13.375" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="9.25" customWidth="1"/>
+    <col min="264" max="264" width="11.25" customWidth="1"/>
+    <col min="265" max="265" width="9.5" customWidth="1"/>
+    <col min="513" max="513" width="9.75" customWidth="1"/>
+    <col min="514" max="514" width="21.125" customWidth="1"/>
+    <col min="515" max="515" width="21.625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
+    <col min="517" max="517" width="13.375" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="9.25" customWidth="1"/>
+    <col min="520" max="520" width="11.25" customWidth="1"/>
+    <col min="521" max="521" width="9.5" customWidth="1"/>
+    <col min="769" max="769" width="9.75" customWidth="1"/>
+    <col min="770" max="770" width="21.125" customWidth="1"/>
+    <col min="771" max="771" width="21.625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
+    <col min="773" max="773" width="13.375" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="9.25" customWidth="1"/>
+    <col min="776" max="776" width="11.25" customWidth="1"/>
+    <col min="777" max="777" width="9.5" customWidth="1"/>
+    <col min="1025" max="1025" width="9.75" customWidth="1"/>
+    <col min="1026" max="1026" width="21.125" customWidth="1"/>
+    <col min="1027" max="1027" width="21.625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
+    <col min="1029" max="1029" width="13.375" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="9.25" customWidth="1"/>
+    <col min="1032" max="1032" width="11.25" customWidth="1"/>
+    <col min="1033" max="1033" width="9.5" customWidth="1"/>
+    <col min="1281" max="1281" width="9.75" customWidth="1"/>
+    <col min="1282" max="1282" width="21.125" customWidth="1"/>
+    <col min="1283" max="1283" width="21.625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
+    <col min="1285" max="1285" width="13.375" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="9.25" customWidth="1"/>
+    <col min="1288" max="1288" width="11.25" customWidth="1"/>
+    <col min="1289" max="1289" width="9.5" customWidth="1"/>
+    <col min="1537" max="1537" width="9.75" customWidth="1"/>
+    <col min="1538" max="1538" width="21.125" customWidth="1"/>
+    <col min="1539" max="1539" width="21.625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
+    <col min="1541" max="1541" width="13.375" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="9.25" customWidth="1"/>
+    <col min="1544" max="1544" width="11.25" customWidth="1"/>
+    <col min="1545" max="1545" width="9.5" customWidth="1"/>
+    <col min="1793" max="1793" width="9.75" customWidth="1"/>
+    <col min="1794" max="1794" width="21.125" customWidth="1"/>
+    <col min="1795" max="1795" width="21.625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
+    <col min="1797" max="1797" width="13.375" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="9.25" customWidth="1"/>
+    <col min="1800" max="1800" width="11.25" customWidth="1"/>
+    <col min="1801" max="1801" width="9.5" customWidth="1"/>
+    <col min="2049" max="2049" width="9.75" customWidth="1"/>
+    <col min="2050" max="2050" width="21.125" customWidth="1"/>
+    <col min="2051" max="2051" width="21.625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
+    <col min="2053" max="2053" width="13.375" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="9.25" customWidth="1"/>
+    <col min="2056" max="2056" width="11.25" customWidth="1"/>
+    <col min="2057" max="2057" width="9.5" customWidth="1"/>
+    <col min="2305" max="2305" width="9.75" customWidth="1"/>
+    <col min="2306" max="2306" width="21.125" customWidth="1"/>
+    <col min="2307" max="2307" width="21.625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
+    <col min="2309" max="2309" width="13.375" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="9.25" customWidth="1"/>
+    <col min="2312" max="2312" width="11.25" customWidth="1"/>
+    <col min="2313" max="2313" width="9.5" customWidth="1"/>
+    <col min="2561" max="2561" width="9.75" customWidth="1"/>
+    <col min="2562" max="2562" width="21.125" customWidth="1"/>
+    <col min="2563" max="2563" width="21.625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
+    <col min="2565" max="2565" width="13.375" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="9.25" customWidth="1"/>
+    <col min="2568" max="2568" width="11.25" customWidth="1"/>
+    <col min="2569" max="2569" width="9.5" customWidth="1"/>
+    <col min="2817" max="2817" width="9.75" customWidth="1"/>
+    <col min="2818" max="2818" width="21.125" customWidth="1"/>
+    <col min="2819" max="2819" width="21.625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
+    <col min="2821" max="2821" width="13.375" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="9.25" customWidth="1"/>
+    <col min="2824" max="2824" width="11.25" customWidth="1"/>
+    <col min="2825" max="2825" width="9.5" customWidth="1"/>
+    <col min="3073" max="3073" width="9.75" customWidth="1"/>
+    <col min="3074" max="3074" width="21.125" customWidth="1"/>
+    <col min="3075" max="3075" width="21.625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
+    <col min="3077" max="3077" width="13.375" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="9.25" customWidth="1"/>
+    <col min="3080" max="3080" width="11.25" customWidth="1"/>
+    <col min="3081" max="3081" width="9.5" customWidth="1"/>
+    <col min="3329" max="3329" width="9.75" customWidth="1"/>
+    <col min="3330" max="3330" width="21.125" customWidth="1"/>
+    <col min="3331" max="3331" width="21.625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
+    <col min="3333" max="3333" width="13.375" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="9.25" customWidth="1"/>
+    <col min="3336" max="3336" width="11.25" customWidth="1"/>
+    <col min="3337" max="3337" width="9.5" customWidth="1"/>
+    <col min="3585" max="3585" width="9.75" customWidth="1"/>
+    <col min="3586" max="3586" width="21.125" customWidth="1"/>
+    <col min="3587" max="3587" width="21.625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
+    <col min="3589" max="3589" width="13.375" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="9.25" customWidth="1"/>
+    <col min="3592" max="3592" width="11.25" customWidth="1"/>
+    <col min="3593" max="3593" width="9.5" customWidth="1"/>
+    <col min="3841" max="3841" width="9.75" customWidth="1"/>
+    <col min="3842" max="3842" width="21.125" customWidth="1"/>
+    <col min="3843" max="3843" width="21.625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
+    <col min="3845" max="3845" width="13.375" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="9.25" customWidth="1"/>
+    <col min="3848" max="3848" width="11.25" customWidth="1"/>
+    <col min="3849" max="3849" width="9.5" customWidth="1"/>
+    <col min="4097" max="4097" width="9.75" customWidth="1"/>
+    <col min="4098" max="4098" width="21.125" customWidth="1"/>
+    <col min="4099" max="4099" width="21.625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
+    <col min="4101" max="4101" width="13.375" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="9.25" customWidth="1"/>
+    <col min="4104" max="4104" width="11.25" customWidth="1"/>
+    <col min="4105" max="4105" width="9.5" customWidth="1"/>
+    <col min="4353" max="4353" width="9.75" customWidth="1"/>
+    <col min="4354" max="4354" width="21.125" customWidth="1"/>
+    <col min="4355" max="4355" width="21.625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
+    <col min="4357" max="4357" width="13.375" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="9.25" customWidth="1"/>
+    <col min="4360" max="4360" width="11.25" customWidth="1"/>
+    <col min="4361" max="4361" width="9.5" customWidth="1"/>
+    <col min="4609" max="4609" width="9.75" customWidth="1"/>
+    <col min="4610" max="4610" width="21.125" customWidth="1"/>
+    <col min="4611" max="4611" width="21.625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
+    <col min="4613" max="4613" width="13.375" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="9.25" customWidth="1"/>
+    <col min="4616" max="4616" width="11.25" customWidth="1"/>
+    <col min="4617" max="4617" width="9.5" customWidth="1"/>
+    <col min="4865" max="4865" width="9.75" customWidth="1"/>
+    <col min="4866" max="4866" width="21.125" customWidth="1"/>
+    <col min="4867" max="4867" width="21.625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
+    <col min="4869" max="4869" width="13.375" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="9.25" customWidth="1"/>
+    <col min="4872" max="4872" width="11.25" customWidth="1"/>
+    <col min="4873" max="4873" width="9.5" customWidth="1"/>
+    <col min="5121" max="5121" width="9.75" customWidth="1"/>
+    <col min="5122" max="5122" width="21.125" customWidth="1"/>
+    <col min="5123" max="5123" width="21.625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
+    <col min="5125" max="5125" width="13.375" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="9.25" customWidth="1"/>
+    <col min="5128" max="5128" width="11.25" customWidth="1"/>
+    <col min="5129" max="5129" width="9.5" customWidth="1"/>
+    <col min="5377" max="5377" width="9.75" customWidth="1"/>
+    <col min="5378" max="5378" width="21.125" customWidth="1"/>
+    <col min="5379" max="5379" width="21.625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
+    <col min="5381" max="5381" width="13.375" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="9.25" customWidth="1"/>
+    <col min="5384" max="5384" width="11.25" customWidth="1"/>
+    <col min="5385" max="5385" width="9.5" customWidth="1"/>
+    <col min="5633" max="5633" width="9.75" customWidth="1"/>
+    <col min="5634" max="5634" width="21.125" customWidth="1"/>
+    <col min="5635" max="5635" width="21.625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
+    <col min="5637" max="5637" width="13.375" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="9.25" customWidth="1"/>
+    <col min="5640" max="5640" width="11.25" customWidth="1"/>
+    <col min="5641" max="5641" width="9.5" customWidth="1"/>
+    <col min="5889" max="5889" width="9.75" customWidth="1"/>
+    <col min="5890" max="5890" width="21.125" customWidth="1"/>
+    <col min="5891" max="5891" width="21.625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
+    <col min="5893" max="5893" width="13.375" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="9.25" customWidth="1"/>
+    <col min="5896" max="5896" width="11.25" customWidth="1"/>
+    <col min="5897" max="5897" width="9.5" customWidth="1"/>
+    <col min="6145" max="6145" width="9.75" customWidth="1"/>
+    <col min="6146" max="6146" width="21.125" customWidth="1"/>
+    <col min="6147" max="6147" width="21.625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
+    <col min="6149" max="6149" width="13.375" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="9.25" customWidth="1"/>
+    <col min="6152" max="6152" width="11.25" customWidth="1"/>
+    <col min="6153" max="6153" width="9.5" customWidth="1"/>
+    <col min="6401" max="6401" width="9.75" customWidth="1"/>
+    <col min="6402" max="6402" width="21.125" customWidth="1"/>
+    <col min="6403" max="6403" width="21.625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
+    <col min="6405" max="6405" width="13.375" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="9.25" customWidth="1"/>
+    <col min="6408" max="6408" width="11.25" customWidth="1"/>
+    <col min="6409" max="6409" width="9.5" customWidth="1"/>
+    <col min="6657" max="6657" width="9.75" customWidth="1"/>
+    <col min="6658" max="6658" width="21.125" customWidth="1"/>
+    <col min="6659" max="6659" width="21.625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
+    <col min="6661" max="6661" width="13.375" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="9.25" customWidth="1"/>
+    <col min="6664" max="6664" width="11.25" customWidth="1"/>
+    <col min="6665" max="6665" width="9.5" customWidth="1"/>
+    <col min="6913" max="6913" width="9.75" customWidth="1"/>
+    <col min="6914" max="6914" width="21.125" customWidth="1"/>
+    <col min="6915" max="6915" width="21.625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
+    <col min="6917" max="6917" width="13.375" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="9.25" customWidth="1"/>
+    <col min="6920" max="6920" width="11.25" customWidth="1"/>
+    <col min="6921" max="6921" width="9.5" customWidth="1"/>
+    <col min="7169" max="7169" width="9.75" customWidth="1"/>
+    <col min="7170" max="7170" width="21.125" customWidth="1"/>
+    <col min="7171" max="7171" width="21.625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
+    <col min="7173" max="7173" width="13.375" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="9.25" customWidth="1"/>
+    <col min="7176" max="7176" width="11.25" customWidth="1"/>
+    <col min="7177" max="7177" width="9.5" customWidth="1"/>
+    <col min="7425" max="7425" width="9.75" customWidth="1"/>
+    <col min="7426" max="7426" width="21.125" customWidth="1"/>
+    <col min="7427" max="7427" width="21.625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
+    <col min="7429" max="7429" width="13.375" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="9.25" customWidth="1"/>
+    <col min="7432" max="7432" width="11.25" customWidth="1"/>
+    <col min="7433" max="7433" width="9.5" customWidth="1"/>
+    <col min="7681" max="7681" width="9.75" customWidth="1"/>
+    <col min="7682" max="7682" width="21.125" customWidth="1"/>
+    <col min="7683" max="7683" width="21.625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
+    <col min="7685" max="7685" width="13.375" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="9.25" customWidth="1"/>
+    <col min="7688" max="7688" width="11.25" customWidth="1"/>
+    <col min="7689" max="7689" width="9.5" customWidth="1"/>
+    <col min="7937" max="7937" width="9.75" customWidth="1"/>
+    <col min="7938" max="7938" width="21.125" customWidth="1"/>
+    <col min="7939" max="7939" width="21.625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
+    <col min="7941" max="7941" width="13.375" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="9.25" customWidth="1"/>
+    <col min="7944" max="7944" width="11.25" customWidth="1"/>
+    <col min="7945" max="7945" width="9.5" customWidth="1"/>
+    <col min="8193" max="8193" width="9.75" customWidth="1"/>
+    <col min="8194" max="8194" width="21.125" customWidth="1"/>
+    <col min="8195" max="8195" width="21.625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
+    <col min="8197" max="8197" width="13.375" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="9.25" customWidth="1"/>
+    <col min="8200" max="8200" width="11.25" customWidth="1"/>
+    <col min="8201" max="8201" width="9.5" customWidth="1"/>
+    <col min="8449" max="8449" width="9.75" customWidth="1"/>
+    <col min="8450" max="8450" width="21.125" customWidth="1"/>
+    <col min="8451" max="8451" width="21.625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
+    <col min="8453" max="8453" width="13.375" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="9.25" customWidth="1"/>
+    <col min="8456" max="8456" width="11.25" customWidth="1"/>
+    <col min="8457" max="8457" width="9.5" customWidth="1"/>
+    <col min="8705" max="8705" width="9.75" customWidth="1"/>
+    <col min="8706" max="8706" width="21.125" customWidth="1"/>
+    <col min="8707" max="8707" width="21.625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
+    <col min="8709" max="8709" width="13.375" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="9.25" customWidth="1"/>
+    <col min="8712" max="8712" width="11.25" customWidth="1"/>
+    <col min="8713" max="8713" width="9.5" customWidth="1"/>
+    <col min="8961" max="8961" width="9.75" customWidth="1"/>
+    <col min="8962" max="8962" width="21.125" customWidth="1"/>
+    <col min="8963" max="8963" width="21.625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
+    <col min="8965" max="8965" width="13.375" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="9.25" customWidth="1"/>
+    <col min="8968" max="8968" width="11.25" customWidth="1"/>
+    <col min="8969" max="8969" width="9.5" customWidth="1"/>
+    <col min="9217" max="9217" width="9.75" customWidth="1"/>
+    <col min="9218" max="9218" width="21.125" customWidth="1"/>
+    <col min="9219" max="9219" width="21.625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
+    <col min="9221" max="9221" width="13.375" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="9.25" customWidth="1"/>
+    <col min="9224" max="9224" width="11.25" customWidth="1"/>
+    <col min="9225" max="9225" width="9.5" customWidth="1"/>
+    <col min="9473" max="9473" width="9.75" customWidth="1"/>
+    <col min="9474" max="9474" width="21.125" customWidth="1"/>
+    <col min="9475" max="9475" width="21.625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
+    <col min="9477" max="9477" width="13.375" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="9.25" customWidth="1"/>
+    <col min="9480" max="9480" width="11.25" customWidth="1"/>
+    <col min="9481" max="9481" width="9.5" customWidth="1"/>
+    <col min="9729" max="9729" width="9.75" customWidth="1"/>
+    <col min="9730" max="9730" width="21.125" customWidth="1"/>
+    <col min="9731" max="9731" width="21.625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
+    <col min="9733" max="9733" width="13.375" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="9.25" customWidth="1"/>
+    <col min="9736" max="9736" width="11.25" customWidth="1"/>
+    <col min="9737" max="9737" width="9.5" customWidth="1"/>
+    <col min="9985" max="9985" width="9.75" customWidth="1"/>
+    <col min="9986" max="9986" width="21.125" customWidth="1"/>
+    <col min="9987" max="9987" width="21.625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
+    <col min="9989" max="9989" width="13.375" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="9.25" customWidth="1"/>
+    <col min="9992" max="9992" width="11.25" customWidth="1"/>
+    <col min="9993" max="9993" width="9.5" customWidth="1"/>
+    <col min="10241" max="10241" width="9.75" customWidth="1"/>
+    <col min="10242" max="10242" width="21.125" customWidth="1"/>
+    <col min="10243" max="10243" width="21.625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
+    <col min="10245" max="10245" width="13.375" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="9.25" customWidth="1"/>
+    <col min="10248" max="10248" width="11.25" customWidth="1"/>
+    <col min="10249" max="10249" width="9.5" customWidth="1"/>
+    <col min="10497" max="10497" width="9.75" customWidth="1"/>
+    <col min="10498" max="10498" width="21.125" customWidth="1"/>
+    <col min="10499" max="10499" width="21.625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
+    <col min="10501" max="10501" width="13.375" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="9.25" customWidth="1"/>
+    <col min="10504" max="10504" width="11.25" customWidth="1"/>
+    <col min="10505" max="10505" width="9.5" customWidth="1"/>
+    <col min="10753" max="10753" width="9.75" customWidth="1"/>
+    <col min="10754" max="10754" width="21.125" customWidth="1"/>
+    <col min="10755" max="10755" width="21.625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
+    <col min="10757" max="10757" width="13.375" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="9.25" customWidth="1"/>
+    <col min="10760" max="10760" width="11.25" customWidth="1"/>
+    <col min="10761" max="10761" width="9.5" customWidth="1"/>
+    <col min="11009" max="11009" width="9.75" customWidth="1"/>
+    <col min="11010" max="11010" width="21.125" customWidth="1"/>
+    <col min="11011" max="11011" width="21.625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
+    <col min="11013" max="11013" width="13.375" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="9.25" customWidth="1"/>
+    <col min="11016" max="11016" width="11.25" customWidth="1"/>
+    <col min="11017" max="11017" width="9.5" customWidth="1"/>
+    <col min="11265" max="11265" width="9.75" customWidth="1"/>
+    <col min="11266" max="11266" width="21.125" customWidth="1"/>
+    <col min="11267" max="11267" width="21.625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
+    <col min="11269" max="11269" width="13.375" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="9.25" customWidth="1"/>
+    <col min="11272" max="11272" width="11.25" customWidth="1"/>
+    <col min="11273" max="11273" width="9.5" customWidth="1"/>
+    <col min="11521" max="11521" width="9.75" customWidth="1"/>
+    <col min="11522" max="11522" width="21.125" customWidth="1"/>
+    <col min="11523" max="11523" width="21.625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
+    <col min="11525" max="11525" width="13.375" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="9.25" customWidth="1"/>
+    <col min="11528" max="11528" width="11.25" customWidth="1"/>
+    <col min="11529" max="11529" width="9.5" customWidth="1"/>
+    <col min="11777" max="11777" width="9.75" customWidth="1"/>
+    <col min="11778" max="11778" width="21.125" customWidth="1"/>
+    <col min="11779" max="11779" width="21.625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
+    <col min="11781" max="11781" width="13.375" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="9.25" customWidth="1"/>
+    <col min="11784" max="11784" width="11.25" customWidth="1"/>
+    <col min="11785" max="11785" width="9.5" customWidth="1"/>
+    <col min="12033" max="12033" width="9.75" customWidth="1"/>
+    <col min="12034" max="12034" width="21.125" customWidth="1"/>
+    <col min="12035" max="12035" width="21.625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
+    <col min="12037" max="12037" width="13.375" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="9.25" customWidth="1"/>
+    <col min="12040" max="12040" width="11.25" customWidth="1"/>
+    <col min="12041" max="12041" width="9.5" customWidth="1"/>
+    <col min="12289" max="12289" width="9.75" customWidth="1"/>
+    <col min="12290" max="12290" width="21.125" customWidth="1"/>
+    <col min="12291" max="12291" width="21.625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
+    <col min="12293" max="12293" width="13.375" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="9.25" customWidth="1"/>
+    <col min="12296" max="12296" width="11.25" customWidth="1"/>
+    <col min="12297" max="12297" width="9.5" customWidth="1"/>
+    <col min="12545" max="12545" width="9.75" customWidth="1"/>
+    <col min="12546" max="12546" width="21.125" customWidth="1"/>
+    <col min="12547" max="12547" width="21.625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
+    <col min="12549" max="12549" width="13.375" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="9.25" customWidth="1"/>
+    <col min="12552" max="12552" width="11.25" customWidth="1"/>
+    <col min="12553" max="12553" width="9.5" customWidth="1"/>
+    <col min="12801" max="12801" width="9.75" customWidth="1"/>
+    <col min="12802" max="12802" width="21.125" customWidth="1"/>
+    <col min="12803" max="12803" width="21.625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
+    <col min="12805" max="12805" width="13.375" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="9.25" customWidth="1"/>
+    <col min="12808" max="12808" width="11.25" customWidth="1"/>
+    <col min="12809" max="12809" width="9.5" customWidth="1"/>
+    <col min="13057" max="13057" width="9.75" customWidth="1"/>
+    <col min="13058" max="13058" width="21.125" customWidth="1"/>
+    <col min="13059" max="13059" width="21.625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
+    <col min="13061" max="13061" width="13.375" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="9.25" customWidth="1"/>
+    <col min="13064" max="13064" width="11.25" customWidth="1"/>
+    <col min="13065" max="13065" width="9.5" customWidth="1"/>
+    <col min="13313" max="13313" width="9.75" customWidth="1"/>
+    <col min="13314" max="13314" width="21.125" customWidth="1"/>
+    <col min="13315" max="13315" width="21.625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
+    <col min="13317" max="13317" width="13.375" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="9.25" customWidth="1"/>
+    <col min="13320" max="13320" width="11.25" customWidth="1"/>
+    <col min="13321" max="13321" width="9.5" customWidth="1"/>
+    <col min="13569" max="13569" width="9.75" customWidth="1"/>
+    <col min="13570" max="13570" width="21.125" customWidth="1"/>
+    <col min="13571" max="13571" width="21.625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
+    <col min="13573" max="13573" width="13.375" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="9.25" customWidth="1"/>
+    <col min="13576" max="13576" width="11.25" customWidth="1"/>
+    <col min="13577" max="13577" width="9.5" customWidth="1"/>
+    <col min="13825" max="13825" width="9.75" customWidth="1"/>
+    <col min="13826" max="13826" width="21.125" customWidth="1"/>
+    <col min="13827" max="13827" width="21.625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
+    <col min="13829" max="13829" width="13.375" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="9.25" customWidth="1"/>
+    <col min="13832" max="13832" width="11.25" customWidth="1"/>
+    <col min="13833" max="13833" width="9.5" customWidth="1"/>
+    <col min="14081" max="14081" width="9.75" customWidth="1"/>
+    <col min="14082" max="14082" width="21.125" customWidth="1"/>
+    <col min="14083" max="14083" width="21.625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
+    <col min="14085" max="14085" width="13.375" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="9.25" customWidth="1"/>
+    <col min="14088" max="14088" width="11.25" customWidth="1"/>
+    <col min="14089" max="14089" width="9.5" customWidth="1"/>
+    <col min="14337" max="14337" width="9.75" customWidth="1"/>
+    <col min="14338" max="14338" width="21.125" customWidth="1"/>
+    <col min="14339" max="14339" width="21.625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
+    <col min="14341" max="14341" width="13.375" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="9.25" customWidth="1"/>
+    <col min="14344" max="14344" width="11.25" customWidth="1"/>
+    <col min="14345" max="14345" width="9.5" customWidth="1"/>
+    <col min="14593" max="14593" width="9.75" customWidth="1"/>
+    <col min="14594" max="14594" width="21.125" customWidth="1"/>
+    <col min="14595" max="14595" width="21.625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
+    <col min="14597" max="14597" width="13.375" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="9.25" customWidth="1"/>
+    <col min="14600" max="14600" width="11.25" customWidth="1"/>
+    <col min="14601" max="14601" width="9.5" customWidth="1"/>
+    <col min="14849" max="14849" width="9.75" customWidth="1"/>
+    <col min="14850" max="14850" width="21.125" customWidth="1"/>
+    <col min="14851" max="14851" width="21.625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
+    <col min="14853" max="14853" width="13.375" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="9.25" customWidth="1"/>
+    <col min="14856" max="14856" width="11.25" customWidth="1"/>
+    <col min="14857" max="14857" width="9.5" customWidth="1"/>
+    <col min="15105" max="15105" width="9.75" customWidth="1"/>
+    <col min="15106" max="15106" width="21.125" customWidth="1"/>
+    <col min="15107" max="15107" width="21.625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
+    <col min="15109" max="15109" width="13.375" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="9.25" customWidth="1"/>
+    <col min="15112" max="15112" width="11.25" customWidth="1"/>
+    <col min="15113" max="15113" width="9.5" customWidth="1"/>
+    <col min="15361" max="15361" width="9.75" customWidth="1"/>
+    <col min="15362" max="15362" width="21.125" customWidth="1"/>
+    <col min="15363" max="15363" width="21.625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
+    <col min="15365" max="15365" width="13.375" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="9.25" customWidth="1"/>
+    <col min="15368" max="15368" width="11.25" customWidth="1"/>
+    <col min="15369" max="15369" width="9.5" customWidth="1"/>
+    <col min="15617" max="15617" width="9.75" customWidth="1"/>
+    <col min="15618" max="15618" width="21.125" customWidth="1"/>
+    <col min="15619" max="15619" width="21.625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
+    <col min="15621" max="15621" width="13.375" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="9.25" customWidth="1"/>
+    <col min="15624" max="15624" width="11.25" customWidth="1"/>
+    <col min="15625" max="15625" width="9.5" customWidth="1"/>
+    <col min="15873" max="15873" width="9.75" customWidth="1"/>
+    <col min="15874" max="15874" width="21.125" customWidth="1"/>
+    <col min="15875" max="15875" width="21.625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
+    <col min="15877" max="15877" width="13.375" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="9.25" customWidth="1"/>
+    <col min="15880" max="15880" width="11.25" customWidth="1"/>
+    <col min="15881" max="15881" width="9.5" customWidth="1"/>
+    <col min="16129" max="16129" width="9.75" customWidth="1"/>
+    <col min="16130" max="16130" width="21.125" customWidth="1"/>
+    <col min="16131" max="16131" width="21.625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
+    <col min="16133" max="16133" width="13.375" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="9.25" customWidth="1"/>
+    <col min="16136" max="16136" width="11.25" customWidth="1"/>
+    <col min="16137" max="16137" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A11" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A13" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="53">
+        <v>2</v>
+      </c>
+      <c r="C13" s="53">
+        <v>3</v>
+      </c>
+      <c r="D13" s="53">
+        <v>4</v>
+      </c>
+      <c r="E13" s="53">
+        <v>5</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="53">
+        <v>8</v>
+      </c>
+      <c r="I13" s="53">
+        <v>9</v>
+      </c>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A14" s="56">
+        <v>43226</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="103" t="str">
+        <f>VLOOKUP(B14,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D14" s="104">
+        <f>VLOOKUP(B14,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>261183075</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="57">
+        <v>12028</v>
+      </c>
+      <c r="G14" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" ref="H14:H19" si="0">F14*G14</f>
+        <v>210490000</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A15" s="56">
+        <v>43226</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="59" t="str">
+        <f>VLOOKUP(B15,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D15" s="24">
+        <f>VLOOKUP(B15,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>260456563</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="25">
+        <v>13026</v>
+      </c>
+      <c r="G15" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="0"/>
+        <v>227955000</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A16" s="56">
+        <v>43226</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="59" t="str">
+        <f>VLOOKUP(B16,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D16" s="24">
+        <f>VLOOKUP(B16,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="25">
+        <v>12121</v>
+      </c>
+      <c r="G16" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H16" s="27">
+        <f>F16*G16</f>
+        <v>212117500</v>
+      </c>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A17" s="56">
+        <v>43230</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="103" t="str">
+        <f>VLOOKUP(B17,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D17" s="104">
+        <f>VLOOKUP(B17,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>261183075</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="57">
+        <v>12325</v>
+      </c>
+      <c r="G17" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>215687500</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A18" s="56">
+        <v>43230</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="59" t="str">
+        <f>VLOOKUP(B18,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D18" s="24">
+        <f>VLOOKUP(B18,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>260456563</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G18" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="0"/>
+        <v>140000000</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A19" s="56">
+        <v>43230</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="59" t="str">
+        <f>VLOOKUP(B19,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D19" s="24">
+        <f>VLOOKUP(B19,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="25">
+        <f>6000*11-SUM(F14:F18)</f>
+        <v>8500</v>
+      </c>
+      <c r="G19" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="0"/>
+        <v>148750000</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A22" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="66">
+        <f>SUM(H14:H20)</f>
+        <v>1155000000</v>
+      </c>
+      <c r="D22" s="66"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="50"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="67"/>
+      <c r="D24" s="50"/>
+      <c r="G24" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="G26" s="74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="75"/>
+      <c r="D29" s="73"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="75"/>
+      <c r="D31" s="73"/>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A36" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="88"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="90"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A39" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="92"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1">
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A41" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A42" s="48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A43" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A44" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="6.75" customHeight="1"/>
+    <row r="46" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A46" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="51"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A47" s="79"/>
+      <c r="B47" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="83"/>
+      <c r="J47" s="51"/>
+    </row>
+    <row r="48" spans="1:10" ht="10.5" customHeight="1">
+      <c r="A48" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="53">
+        <v>2</v>
+      </c>
+      <c r="C48" s="53">
+        <v>3</v>
+      </c>
+      <c r="D48" s="53">
+        <v>4</v>
+      </c>
+      <c r="E48" s="53">
+        <v>5</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="53">
+        <v>8</v>
+      </c>
+      <c r="I48" s="53">
+        <v>9</v>
+      </c>
+      <c r="J48" s="55"/>
+    </row>
+    <row r="49" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A49" s="56">
+        <v>43233</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="103" t="str">
+        <f>VLOOKUP(B49,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D49" s="104">
+        <f>VLOOKUP(B49,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>261183075</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="57">
+        <v>5689</v>
+      </c>
+      <c r="G49" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H49" s="28">
+        <f t="shared" ref="H49:H54" si="1">F49*G49</f>
+        <v>99557500</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A50" s="56">
+        <v>43233</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="59" t="str">
+        <f>VLOOKUP(B50,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D50" s="24">
+        <f>VLOOKUP(B50,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>260456563</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="25">
+        <v>5976</v>
+      </c>
+      <c r="G50" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H50" s="27">
+        <f t="shared" si="1"/>
+        <v>104580000</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="58"/>
+    </row>
+    <row r="51" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A51" s="56">
+        <v>43233</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="59" t="str">
+        <f>VLOOKUP(B51,[2]Vine!$A$5:$F$78,3,0)</f>
+        <v>Vũng Tàu</v>
+      </c>
+      <c r="D51" s="24">
+        <f>VLOOKUP(B51,[2]Vine!$A$5:$F$78,2,0)</f>
+        <v>270176960</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="25">
+        <f>3700*5-SUM(F49:F50)</f>
+        <v>6835</v>
+      </c>
+      <c r="G51" s="28">
+        <v>17500</v>
+      </c>
+      <c r="H51" s="27">
+        <f t="shared" si="1"/>
+        <v>119612500</v>
+      </c>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:10" ht="7.5" customHeight="1">
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="58"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A54" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="66">
+        <f>SUM(H49:H52)</f>
+        <v>323750000</v>
+      </c>
+      <c r="D54" s="66"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="50"/>
+      <c r="H55" s="67"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="67"/>
+      <c r="D56" s="50"/>
+      <c r="G56" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="G58" s="74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="G59" s="74"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="G60" s="74"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="75"/>
+      <c r="D61" s="73"/>
+      <c r="G61" s="74"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="73"/>
+      <c r="G62" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A36:G38"/>
+    <mergeCell ref="H36:I39"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E6 F6 C40:E41 F41">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Döõ lieäu sai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>